--- a/dataset/2nd_data/beak/beak_env_detail_data.xlsx
+++ b/dataset/2nd_data/beak/beak_env_detail_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT84"/>
+  <dimension ref="A1:CA84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -684,47 +684,82 @@
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
+          <t>일출부터12시까지평균온도</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
           <t>적정습도누적시간</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>일출전후한시간평균온도</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>일몰전후한시간평균온도</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>적정온도변화폭(하위)</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>적정온도변화폭(상위)</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>야간평균온도</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>일몰일출적합증산(HD)누적시간</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>야간평균습도</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>시간당5도이상의변화수</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>주간평균습도</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>오후부터일몰까지평균습도</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>일출부터12시까지평균습도</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>주야간온도차이</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>주야간온도차8도이상인날수</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>주야간습도차이</t>
         </is>
       </c>
     </row>
@@ -919,31 +954,52 @@
         <v>24.11836104513072</v>
       </c>
       <c r="BL2" t="n">
+        <v>18.96595567867035</v>
+      </c>
+      <c r="BM2" t="n">
         <v>0.8166666666666667</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BN2" t="n">
         <v>0.2899999999999991</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BO2" t="n">
         <v>2.310000000000002</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BP2" t="n">
         <v>-0.8100000000000005</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BQ2" t="n">
         <v>3.5</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BR2" t="n">
         <v>17.51379362670719</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BS2" t="n">
         <v>7.916666666666667</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BT2" t="n">
+        <v>64.33663125948409</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>22</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>42.2965428937263</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>37.04185273159155</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>48.38855955678684</v>
+      </c>
+      <c r="BY2" t="n">
         <v>4.218920841922877</v>
       </c>
-      <c r="BT2" t="n">
-        <v>0</v>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>-22.04008836575779</v>
       </c>
     </row>
     <row r="3">
@@ -1137,31 +1193,52 @@
         <v>19.78714964370552</v>
       </c>
       <c r="BL3" t="n">
+        <v>14.69900000000001</v>
+      </c>
+      <c r="BM3" t="n">
         <v>5.683333333333334</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BN3" t="n">
         <v>1.41</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BO3" t="n">
         <v>2.199999999999999</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BP3" t="n">
         <v>-2.609999999999999</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BQ3" t="n">
         <v>-2.710000000000001</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BR3" t="n">
         <v>14.17154779969653</v>
       </c>
-      <c r="BR3" t="n">
-        <v>0</v>
-      </c>
       <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>44.05827010622188</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>52</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>53.81776923076929</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>50.18608076009523</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>58.02947222222242</v>
+      </c>
+      <c r="BY3" t="n">
         <v>3.264529123380502</v>
       </c>
-      <c r="BT3" t="n">
-        <v>0</v>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>9.759499124547403</v>
       </c>
     </row>
     <row r="4">
@@ -1355,31 +1432,52 @@
         <v>21.33303703703709</v>
       </c>
       <c r="BL4" t="n">
-        <v>0</v>
+        <v>17.13366477272729</v>
       </c>
       <c r="BM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN4" t="n">
         <v>1.700000000000001</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BO4" t="n">
         <v>4.210000000000001</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BP4" t="n">
         <v>-2.81</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BQ4" t="n">
         <v>3.199999999999999</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BR4" t="n">
         <v>14.19098784194526</v>
       </c>
-      <c r="BR4" t="n">
-        <v>0</v>
-      </c>
       <c r="BS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>40.1727051671736</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>156</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>26.95560846560849</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>19.02958024691359</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>36.06125000000006</v>
+      </c>
+      <c r="BY4" t="n">
         <v>5.18722644376915</v>
       </c>
-      <c r="BT4" t="n">
-        <v>0</v>
+      <c r="BZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>-13.21709670156511</v>
       </c>
     </row>
     <row r="5">
@@ -1573,31 +1671,52 @@
         <v>20.27095011876487</v>
       </c>
       <c r="BL5" t="n">
-        <v>0</v>
+        <v>16.99869444444445</v>
       </c>
       <c r="BM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN5" t="n">
         <v>0.3100000000000005</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BO5" t="n">
         <v>1.399999999999999</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BP5" t="n">
         <v>-2.81</v>
       </c>
-      <c r="BP5" t="n">
-        <v>0</v>
-      </c>
       <c r="BQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR5" t="n">
         <v>15.23522003034902</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="BS5" t="n">
         <v>3.25</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="BT5" t="n">
+        <v>51.12330804248895</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>180</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>37.72415384615405</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>33.05695961995256</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>43.13877777777789</v>
+      </c>
+      <c r="BY5" t="n">
         <v>3.526446636317759</v>
       </c>
-      <c r="BT5" t="n">
-        <v>0</v>
+      <c r="BZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>-13.3991541963349</v>
       </c>
     </row>
     <row r="6">
@@ -1791,31 +1910,52 @@
         <v>20.4760332541568</v>
       </c>
       <c r="BL6" t="n">
-        <v>0</v>
+        <v>15.32607954545455</v>
       </c>
       <c r="BM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN6" t="n">
         <v>1</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BO6" t="n">
         <v>3.489999999999998</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BP6" t="n">
         <v>-2.4</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BQ6" t="n">
         <v>-2.210000000000001</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BR6" t="n">
         <v>14.43637329286799</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BS6" t="n">
         <v>3.616666666666667</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="BT6" t="n">
+        <v>49.88769347496245</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>52</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>51.88299222797949</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>50.68579572446579</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>53.31261363636381</v>
+      </c>
+      <c r="BY6" t="n">
         <v>3.694442769308282</v>
       </c>
-      <c r="BT6" t="n">
-        <v>0</v>
+      <c r="BZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>1.995298753017039</v>
       </c>
     </row>
     <row r="7">
@@ -2009,31 +2149,52 @@
         <v>22.12273159144899</v>
       </c>
       <c r="BL7" t="n">
-        <v>0</v>
+        <v>16.06795013850417</v>
       </c>
       <c r="BM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" t="n">
         <v>1.4</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="BO7" t="n">
         <v>2.699999999999999</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BP7" t="n">
         <v>-2.4</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BQ7" t="n">
         <v>0.1000000000000014</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="BR7" t="n">
         <v>14.48665130568356</v>
       </c>
-      <c r="BR7" t="n">
-        <v>0</v>
-      </c>
       <c r="BS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>42.04599078341045</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>63</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>46.9104225352115</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>40.61997624703098</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>54.24662049861514</v>
+      </c>
+      <c r="BY7" t="n">
         <v>4.840493380616202</v>
       </c>
-      <c r="BT7" t="n">
-        <v>0</v>
+      <c r="BZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>4.86443175180105</v>
       </c>
     </row>
     <row r="8">
@@ -2227,31 +2388,52 @@
         <v>20.62610451306418</v>
       </c>
       <c r="BL8" t="n">
-        <v>0</v>
+        <v>15.89734072022163</v>
       </c>
       <c r="BM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" t="n">
         <v>1.09</v>
       </c>
-      <c r="BN8" t="n">
+      <c r="BO8" t="n">
         <v>2.300000000000001</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="BP8" t="n">
         <v>-2.4</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="BQ8" t="n">
         <v>-1.399999999999999</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="BR8" t="n">
         <v>14.42584218512891</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="BS8" t="n">
         <v>2.466666666666667</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="BT8" t="n">
+        <v>46.10587253414297</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>105</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>37.31820742637652</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>28.17524940617584</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>47.96659279778408</v>
+      </c>
+      <c r="BY8" t="n">
         <v>4.01543822460231</v>
       </c>
-      <c r="BT8" t="n">
-        <v>0</v>
+      <c r="BZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>-8.787665107766458</v>
       </c>
     </row>
     <row r="9">
@@ -2445,31 +2627,52 @@
         <v>20.94336538461541</v>
       </c>
       <c r="BL9" t="n">
-        <v>0</v>
+        <v>16.74476454293629</v>
       </c>
       <c r="BM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" t="n">
         <v>1.110000000000001</v>
       </c>
-      <c r="BN9" t="n">
+      <c r="BO9" t="n">
         <v>3.309999999999999</v>
       </c>
-      <c r="BO9" t="n">
+      <c r="BP9" t="n">
         <v>-2.4</v>
       </c>
-      <c r="BP9" t="n">
+      <c r="BQ9" t="n">
         <v>-0.3999999999999986</v>
       </c>
-      <c r="BQ9" t="n">
+      <c r="BR9" t="n">
         <v>14.77216923076928</v>
       </c>
-      <c r="BR9" t="n">
-        <v>0</v>
-      </c>
       <c r="BS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>43.96753846153884</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>60</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>36.98139175257741</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>30.40240384615392</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>44.53587257617738</v>
+      </c>
+      <c r="BY9" t="n">
         <v>4.218694171292684</v>
       </c>
-      <c r="BT9" t="n">
-        <v>0</v>
+      <c r="BZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>-6.986146708961428</v>
       </c>
     </row>
     <row r="10">
@@ -2663,31 +2866,52 @@
         <v>21.6315347721823</v>
       </c>
       <c r="BL10" t="n">
-        <v>0</v>
+        <v>16.52614525139664</v>
       </c>
       <c r="BM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN10" t="n">
         <v>1.200000000000001</v>
       </c>
-      <c r="BN10" t="n">
+      <c r="BO10" t="n">
         <v>3</v>
       </c>
-      <c r="BO10" t="n">
+      <c r="BP10" t="n">
         <v>-2.4</v>
       </c>
-      <c r="BP10" t="n">
+      <c r="BQ10" t="n">
         <v>-1.609999999999999</v>
       </c>
-      <c r="BQ10" t="n">
+      <c r="BR10" t="n">
         <v>14.85311248073963</v>
       </c>
-      <c r="BR10" t="n">
+      <c r="BS10" t="n">
         <v>0.5333333333333333</v>
       </c>
-      <c r="BS10" t="n">
+      <c r="BT10" t="n">
+        <v>45.65300462249652</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>35.55412144702855</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>28.54455635491615</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>43.68997206703924</v>
+      </c>
+      <c r="BY10" t="n">
         <v>4.415892687219129</v>
       </c>
-      <c r="BT10" t="n">
-        <v>0</v>
+      <c r="BZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>-10.09888317546798</v>
       </c>
     </row>
     <row r="11">
@@ -2881,31 +3105,52 @@
         <v>23.37947115384622</v>
       </c>
       <c r="BL11" t="n">
-        <v>0</v>
+        <v>18.49620396600566</v>
       </c>
       <c r="BM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN11" t="n">
         <v>1.110000000000001</v>
       </c>
-      <c r="BN11" t="n">
+      <c r="BO11" t="n">
         <v>3.710000000000001</v>
       </c>
-      <c r="BO11" t="n">
+      <c r="BP11" t="n">
         <v>-2.5</v>
       </c>
-      <c r="BP11" t="n">
+      <c r="BQ11" t="n">
         <v>0.5</v>
       </c>
-      <c r="BQ11" t="n">
+      <c r="BR11" t="n">
         <v>16.28509345794391</v>
       </c>
-      <c r="BR11" t="n">
+      <c r="BS11" t="n">
         <v>2.616666666666667</v>
       </c>
-      <c r="BS11" t="n">
+      <c r="BT11" t="n">
+        <v>54.69998442367638</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>85</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>38.67312500000033</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>37.20473557692315</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>40.36512747875366</v>
+      </c>
+      <c r="BY11" t="n">
         <v>4.84788831288952</v>
       </c>
-      <c r="BT11" t="n">
-        <v>0</v>
+      <c r="BZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>-16.02685942367605</v>
       </c>
     </row>
     <row r="12">
@@ -3099,31 +3344,52 @@
         <v>25.16593673965947</v>
       </c>
       <c r="BL12" t="n">
+        <v>19.16193905817175</v>
+      </c>
+      <c r="BM12" t="n">
         <v>3.833333333333333</v>
       </c>
-      <c r="BM12" t="n">
+      <c r="BN12" t="n">
         <v>0.5899999999999999</v>
       </c>
-      <c r="BN12" t="n">
+      <c r="BO12" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="BO12" t="n">
+      <c r="BP12" t="n">
         <v>-3.109999999999999</v>
       </c>
-      <c r="BP12" t="n">
+      <c r="BQ12" t="n">
         <v>3.100000000000001</v>
       </c>
-      <c r="BQ12" t="n">
+      <c r="BR12" t="n">
         <v>15.45644376899704</v>
       </c>
-      <c r="BR12" t="n">
+      <c r="BS12" t="n">
         <v>5.6</v>
       </c>
-      <c r="BS12" t="n">
+      <c r="BT12" t="n">
+        <v>75.36218844984828</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>91</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>38.59214007782121</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>33.75941605839424</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>44.068725761773</v>
+      </c>
+      <c r="BY12" t="n">
         <v>6.896422638266367</v>
       </c>
-      <c r="BT12" t="n">
-        <v>0</v>
+      <c r="BZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>-36.77004837202706</v>
       </c>
     </row>
     <row r="13">
@@ -3317,31 +3583,52 @@
         <v>18.75245238095238</v>
       </c>
       <c r="BL13" t="n">
+        <v>16.7291135734072</v>
+      </c>
+      <c r="BM13" t="n">
         <v>21.2</v>
       </c>
-      <c r="BM13" t="n">
+      <c r="BN13" t="n">
         <v>0.08999999999999986</v>
       </c>
-      <c r="BN13" t="n">
+      <c r="BO13" t="n">
         <v>0.5</v>
       </c>
-      <c r="BO13" t="n">
+      <c r="BP13" t="n">
         <v>-1.609999999999999</v>
       </c>
-      <c r="BP13" t="n">
+      <c r="BQ13" t="n">
         <v>-4.800000000000001</v>
       </c>
-      <c r="BQ13" t="n">
+      <c r="BR13" t="n">
         <v>16.20408194233684</v>
       </c>
-      <c r="BR13" t="n">
-        <v>0</v>
-      </c>
       <c r="BS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>81.44406676783019</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>83.36010256410287</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>82.2807619047618</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>84.62288088642656</v>
+      </c>
+      <c r="BY13" t="n">
         <v>1.611610365355631</v>
       </c>
-      <c r="BT13" t="n">
-        <v>0</v>
+      <c r="BZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>1.916035796272681</v>
       </c>
     </row>
     <row r="14">
@@ -3535,31 +3822,52 @@
         <v>20.22346793349174</v>
       </c>
       <c r="BL14" t="n">
+        <v>17.06280555555556</v>
+      </c>
+      <c r="BM14" t="n">
         <v>8.816666666666666</v>
       </c>
-      <c r="BM14" t="n">
+      <c r="BN14" t="n">
         <v>0.4000000000000004</v>
       </c>
-      <c r="BN14" t="n">
+      <c r="BO14" t="n">
         <v>6.59</v>
       </c>
-      <c r="BO14" t="n">
+      <c r="BP14" t="n">
         <v>-2.199999999999999</v>
       </c>
-      <c r="BP14" t="n">
+      <c r="BQ14" t="n">
         <v>-2.710000000000001</v>
       </c>
-      <c r="BQ14" t="n">
+      <c r="BR14" t="n">
         <v>17.13142640364192</v>
       </c>
-      <c r="BR14" t="n">
-        <v>0</v>
-      </c>
       <c r="BS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>48.75172989377884</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>134</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>47.2118846153847</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>35.60434679334929</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>60.739527777778</v>
+      </c>
+      <c r="BY14" t="n">
         <v>1.634586416871006</v>
       </c>
-      <c r="BT14" t="n">
-        <v>0</v>
+      <c r="BZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>-1.539845278394132</v>
       </c>
     </row>
     <row r="15">
@@ -3753,31 +4061,52 @@
         <v>21.59638954869365</v>
       </c>
       <c r="BL15" t="n">
-        <v>0</v>
+        <v>19.67365650969532</v>
       </c>
       <c r="BM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN15" t="n">
         <v>4.109999999999999</v>
       </c>
-      <c r="BN15" t="n">
+      <c r="BO15" t="n">
         <v>1.609999999999999</v>
       </c>
-      <c r="BO15" t="n">
+      <c r="BP15" t="n">
         <v>-0.9000000000000004</v>
       </c>
-      <c r="BP15" t="n">
+      <c r="BQ15" t="n">
         <v>-1.800000000000001</v>
       </c>
-      <c r="BQ15" t="n">
+      <c r="BR15" t="n">
         <v>15.88248861911995</v>
       </c>
-      <c r="BR15" t="n">
+      <c r="BS15" t="n">
         <v>7.966666666666667</v>
       </c>
-      <c r="BS15" t="n">
+      <c r="BT15" t="n">
+        <v>57.83176024279241</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>48</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>38.14758002560836</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>34.30204275534452</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>42.61135734072035</v>
+      </c>
+      <c r="BY15" t="n">
         <v>4.824143903287393</v>
       </c>
-      <c r="BT15" t="n">
-        <v>0</v>
+      <c r="BZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>-19.68418021718405</v>
       </c>
     </row>
     <row r="16">
@@ -3971,31 +4300,52 @@
         <v>16.99681710213779</v>
       </c>
       <c r="BL16" t="n">
+        <v>15.8394182825485</v>
+      </c>
+      <c r="BM16" t="n">
         <v>15.78333333333333</v>
       </c>
-      <c r="BM16" t="n">
+      <c r="BN16" t="n">
         <v>0.3000000000000007</v>
       </c>
-      <c r="BN16" t="n">
+      <c r="BO16" t="n">
         <v>1.809999999999999</v>
       </c>
-      <c r="BO16" t="n">
+      <c r="BP16" t="n">
         <v>-2</v>
       </c>
-      <c r="BP16" t="n">
+      <c r="BQ16" t="n">
         <v>-3.800000000000001</v>
       </c>
-      <c r="BQ16" t="n">
+      <c r="BR16" t="n">
         <v>15.83864946889233</v>
       </c>
-      <c r="BR16" t="n">
+      <c r="BS16" t="n">
         <v>0.8166666666666667</v>
       </c>
-      <c r="BS16" t="n">
+      <c r="BT16" t="n">
+        <v>81.64613050075899</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>79</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>70.05111395646638</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>70.8853681710213</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>69.03567867036011</v>
+      </c>
+      <c r="BY16" t="n">
         <v>0.623693680915661</v>
       </c>
-      <c r="BT16" t="n">
-        <v>0</v>
+      <c r="BZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>-11.5950165442926</v>
       </c>
     </row>
     <row r="17">
@@ -4189,31 +4539,52 @@
         <v>16.40026128266035</v>
       </c>
       <c r="BL17" t="n">
+        <v>16.94797783933518</v>
+      </c>
+      <c r="BM17" t="n">
         <v>22.86666666666667</v>
       </c>
-      <c r="BM17" t="n">
+      <c r="BN17" t="n">
         <v>0.2099999999999991</v>
       </c>
-      <c r="BN17" t="n">
+      <c r="BO17" t="n">
         <v>2.09</v>
       </c>
-      <c r="BO17" t="n">
+      <c r="BP17" t="n">
         <v>-2.9</v>
       </c>
-      <c r="BP17" t="n">
+      <c r="BQ17" t="n">
         <v>-4.399999999999999</v>
       </c>
-      <c r="BQ17" t="n">
+      <c r="BR17" t="n">
         <v>14.41911987860393</v>
       </c>
-      <c r="BR17" t="n">
+      <c r="BS17" t="n">
         <v>4.016666666666667</v>
       </c>
-      <c r="BS17" t="n">
+      <c r="BT17" t="n">
+        <v>77.67872534142668</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>23</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>78.30795134443042</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>74.08864608076007</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>83.23321329639876</v>
+      </c>
+      <c r="BY17" t="n">
         <v>2.230483194379445</v>
       </c>
-      <c r="BT17" t="n">
-        <v>0</v>
+      <c r="BZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>0.6292260030037369</v>
       </c>
     </row>
     <row r="18">
@@ -4407,31 +4778,52 @@
         <v>18.0260143198091</v>
       </c>
       <c r="BL18" t="n">
+        <v>16.1148753462604</v>
+      </c>
+      <c r="BM18" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="BM18" t="n">
+      <c r="BN18" t="n">
         <v>0.5</v>
       </c>
-      <c r="BN18" t="n">
+      <c r="BO18" t="n">
         <v>1.41</v>
       </c>
-      <c r="BO18" t="n">
+      <c r="BP18" t="n">
         <v>-2.31</v>
       </c>
-      <c r="BP18" t="n">
+      <c r="BQ18" t="n">
         <v>-4.5</v>
       </c>
-      <c r="BQ18" t="n">
+      <c r="BR18" t="n">
         <v>13.96917933130703</v>
       </c>
-      <c r="BR18" t="n">
+      <c r="BS18" t="n">
         <v>10.96666666666667</v>
       </c>
-      <c r="BS18" t="n">
+      <c r="BT18" t="n">
+        <v>60.73382978723442</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>46.82985879332485</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>42.58415274463018</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>51.70080332409984</v>
+      </c>
+      <c r="BY18" t="n">
         <v>3.171090245073035</v>
       </c>
-      <c r="BT18" t="n">
-        <v>0</v>
+      <c r="BZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>-13.90397099390957</v>
       </c>
     </row>
     <row r="19">
@@ -4625,31 +5017,52 @@
         <v>13.91876484560576</v>
       </c>
       <c r="BL19" t="n">
+        <v>13.86552777777778</v>
+      </c>
+      <c r="BM19" t="n">
         <v>17.66666666666667</v>
       </c>
-      <c r="BM19" t="n">
+      <c r="BN19" t="n">
         <v>0.5999999999999996</v>
       </c>
-      <c r="BN19" t="n">
+      <c r="BO19" t="n">
         <v>0.6099999999999994</v>
       </c>
-      <c r="BO19" t="n">
+      <c r="BP19" t="n">
         <v>-3.699999999999999</v>
       </c>
-      <c r="BP19" t="n">
+      <c r="BQ19" t="n">
         <v>-8.609999999999999</v>
       </c>
-      <c r="BQ19" t="n">
+      <c r="BR19" t="n">
         <v>12.86922492401221</v>
       </c>
-      <c r="BR19" t="n">
+      <c r="BS19" t="n">
         <v>5.85</v>
       </c>
-      <c r="BS19" t="n">
+      <c r="BT19" t="n">
+        <v>75.32381458966577</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>71.25587179487209</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>71.51916864608067</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>70.9144722222222</v>
+      </c>
+      <c r="BY19" t="n">
         <v>1.023082768295435</v>
       </c>
-      <c r="BT19" t="n">
-        <v>0</v>
+      <c r="BZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>-4.06794279479368</v>
       </c>
     </row>
     <row r="20">
@@ -4843,31 +5256,52 @@
         <v>18.3416389548694</v>
       </c>
       <c r="BL20" t="n">
+        <v>16.89684210526315</v>
+      </c>
+      <c r="BM20" t="n">
         <v>8.716666666666667</v>
       </c>
-      <c r="BM20" t="n">
+      <c r="BN20" t="n">
         <v>0.7099999999999991</v>
       </c>
-      <c r="BN20" t="n">
+      <c r="BO20" t="n">
         <v>1.09</v>
       </c>
-      <c r="BO20" t="n">
+      <c r="BP20" t="n">
         <v>-3.609999999999999</v>
       </c>
-      <c r="BP20" t="n">
+      <c r="BQ20" t="n">
         <v>-2.109999999999999</v>
       </c>
-      <c r="BQ20" t="n">
+      <c r="BR20" t="n">
         <v>13.8677996965099</v>
       </c>
-      <c r="BR20" t="n">
+      <c r="BS20" t="n">
         <v>10.98333333333333</v>
       </c>
-      <c r="BS20" t="n">
+      <c r="BT20" t="n">
+        <v>58.07874051593348</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>84</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>46.64651728553162</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>38.35470308788609</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>56.27144044321346</v>
+      </c>
+      <c r="BY20" t="n">
         <v>3.802481993631005</v>
       </c>
-      <c r="BT20" t="n">
-        <v>0</v>
+      <c r="BZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>-11.43222323040187</v>
       </c>
     </row>
     <row r="21">
@@ -5061,31 +5495,52 @@
         <v>17.05740476190479</v>
       </c>
       <c r="BL21" t="n">
+        <v>15.18519444444446</v>
+      </c>
+      <c r="BM21" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="BM21" t="n">
+      <c r="BN21" t="n">
         <v>1.41</v>
       </c>
-      <c r="BN21" t="n">
+      <c r="BO21" t="n">
         <v>2.4</v>
       </c>
-      <c r="BO21" t="n">
+      <c r="BP21" t="n">
         <v>-3.31</v>
       </c>
-      <c r="BP21" t="n">
+      <c r="BQ21" t="n">
         <v>-5</v>
       </c>
-      <c r="BQ21" t="n">
+      <c r="BR21" t="n">
         <v>13.84667173252282</v>
       </c>
-      <c r="BR21" t="n">
+      <c r="BS21" t="n">
         <v>10.96666666666667</v>
       </c>
-      <c r="BS21" t="n">
+      <c r="BT21" t="n">
+        <v>59.07568389057776</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>60</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>48.63106546854941</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>34.82007142857157</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>64.71408333333341</v>
+      </c>
+      <c r="BY21" t="n">
         <v>2.343674865680061</v>
       </c>
-      <c r="BT21" t="n">
-        <v>0</v>
+      <c r="BZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>-10.44461842202835</v>
       </c>
     </row>
     <row r="22">
@@ -5279,31 +5734,52 @@
         <v>18.842541567696</v>
       </c>
       <c r="BL22" t="n">
+        <v>15.76811634349031</v>
+      </c>
+      <c r="BM22" t="n">
         <v>4.2</v>
       </c>
-      <c r="BM22" t="n">
+      <c r="BN22" t="n">
         <v>1.09</v>
       </c>
-      <c r="BN22" t="n">
+      <c r="BO22" t="n">
         <v>1.790000000000001</v>
       </c>
-      <c r="BO22" t="n">
+      <c r="BP22" t="n">
         <v>-3.31</v>
       </c>
-      <c r="BP22" t="n">
+      <c r="BQ22" t="n">
         <v>-3.300000000000001</v>
       </c>
-      <c r="BQ22" t="n">
+      <c r="BR22" t="n">
         <v>15.45205167173263</v>
       </c>
-      <c r="BR22" t="n">
+      <c r="BS22" t="n">
         <v>10.96666666666667</v>
       </c>
-      <c r="BS22" t="n">
+      <c r="BT22" t="n">
+        <v>68.86813069908825</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>76</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>47.50759282970566</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>41.84218527315929</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>54.05975069252089</v>
+      </c>
+      <c r="BY22" t="n">
         <v>1.970227457588841</v>
       </c>
-      <c r="BT22" t="n">
-        <v>0</v>
+      <c r="BZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>-21.36053786938259</v>
       </c>
     </row>
     <row r="23">
@@ -5497,31 +5973,52 @@
         <v>21.43717339667464</v>
       </c>
       <c r="BL23" t="n">
+        <v>16.03448753462606</v>
+      </c>
+      <c r="BM23" t="n">
         <v>10.76666666666667</v>
       </c>
-      <c r="BM23" t="n">
+      <c r="BN23" t="n">
         <v>0.2999999999999989</v>
       </c>
-      <c r="BN23" t="n">
+      <c r="BO23" t="n">
         <v>2.5</v>
       </c>
-      <c r="BO23" t="n">
+      <c r="BP23" t="n">
         <v>-1.609999999999999</v>
       </c>
-      <c r="BP23" t="n">
+      <c r="BQ23" t="n">
         <v>-0.5</v>
       </c>
-      <c r="BQ23" t="n">
+      <c r="BR23" t="n">
         <v>16.25084977238242</v>
       </c>
-      <c r="BR23" t="n">
+      <c r="BS23" t="n">
         <v>10.38333333333333</v>
       </c>
-      <c r="BS23" t="n">
+      <c r="BT23" t="n">
+        <v>66.74538694992431</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>56.26476312419958</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>43.87767220902627</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>70.69825484764559</v>
+      </c>
+      <c r="BY23" t="n">
         <v>2.694361495223351</v>
       </c>
-      <c r="BT23" t="n">
-        <v>0</v>
+      <c r="BZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>-10.48062382572473</v>
       </c>
     </row>
     <row r="24">
@@ -5715,31 +6212,52 @@
         <v>21.5853444180523</v>
       </c>
       <c r="BL24" t="n">
+        <v>16.54390581717454</v>
+      </c>
+      <c r="BM24" t="n">
         <v>12.3</v>
       </c>
-      <c r="BM24" t="n">
+      <c r="BN24" t="n">
         <v>0.2099999999999991</v>
       </c>
-      <c r="BN24" t="n">
+      <c r="BO24" t="n">
         <v>2.5</v>
-      </c>
-      <c r="BO24" t="n">
-        <v>-1.109999999999999</v>
       </c>
       <c r="BP24" t="n">
         <v>-1.109999999999999</v>
       </c>
       <c r="BQ24" t="n">
+        <v>-1.109999999999999</v>
+      </c>
+      <c r="BR24" t="n">
         <v>15.28931714719273</v>
       </c>
-      <c r="BR24" t="n">
+      <c r="BS24" t="n">
         <v>10.98333333333333</v>
       </c>
-      <c r="BS24" t="n">
+      <c r="BT24" t="n">
+        <v>61.73951441578166</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>52</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>58.30170294494228</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>46.28049881235167</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>72.3006648199447</v>
+      </c>
+      <c r="BY24" t="n">
         <v>3.966867231808711</v>
       </c>
-      <c r="BT24" t="n">
-        <v>0</v>
+      <c r="BZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>-3.437811470839378</v>
       </c>
     </row>
     <row r="25">
@@ -5933,31 +6451,52 @@
         <v>22.02805225653209</v>
       </c>
       <c r="BL25" t="n">
+        <v>17.48490304709141</v>
+      </c>
+      <c r="BM25" t="n">
         <v>7.2</v>
       </c>
-      <c r="BM25" t="n">
+      <c r="BN25" t="n">
         <v>0.2999999999999989</v>
       </c>
-      <c r="BN25" t="n">
+      <c r="BO25" t="n">
         <v>3.59</v>
       </c>
-      <c r="BO25" t="n">
+      <c r="BP25" t="n">
         <v>-3.199999999999999</v>
       </c>
-      <c r="BP25" t="n">
+      <c r="BQ25" t="n">
         <v>-1</v>
       </c>
-      <c r="BQ25" t="n">
+      <c r="BR25" t="n">
         <v>15.27095599393018</v>
       </c>
-      <c r="BR25" t="n">
+      <c r="BS25" t="n">
         <v>10.98333333333333</v>
       </c>
-      <c r="BS25" t="n">
+      <c r="BT25" t="n">
+        <v>67.85952959028843</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>24</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>49.56094750320121</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>43.20125890736357</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>56.93592797783955</v>
+      </c>
+      <c r="BY25" t="n">
         <v>4.654101624507863</v>
       </c>
-      <c r="BT25" t="n">
-        <v>0</v>
+      <c r="BZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>-18.29858208708723</v>
       </c>
     </row>
     <row r="26">
@@ -6151,31 +6690,52 @@
         <v>22.4577804295943</v>
       </c>
       <c r="BL26" t="n">
+        <v>18.33980609418283</v>
+      </c>
+      <c r="BM26" t="n">
         <v>13.15</v>
       </c>
-      <c r="BM26" t="n">
+      <c r="BN26" t="n">
         <v>0.2900000000000009</v>
       </c>
-      <c r="BN26" t="n">
+      <c r="BO26" t="n">
         <v>4.81</v>
       </c>
-      <c r="BO26" t="n">
+      <c r="BP26" t="n">
         <v>-2.4</v>
       </c>
-      <c r="BP26" t="n">
+      <c r="BQ26" t="n">
         <v>-0.3999999999999986</v>
       </c>
-      <c r="BQ26" t="n">
+      <c r="BR26" t="n">
         <v>15.41637329286812</v>
       </c>
-      <c r="BR26" t="n">
+      <c r="BS26" t="n">
         <v>10.98333333333333</v>
       </c>
-      <c r="BS26" t="n">
+      <c r="BT26" t="n">
+        <v>69.88632776934767</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>35</v>
+      </c>
+      <c r="BV26" t="n">
+        <v>52.3650192554559</v>
+      </c>
+      <c r="BW26" t="n">
+        <v>45.9425775656326</v>
+      </c>
+      <c r="BX26" t="n">
+        <v>59.78562326869835</v>
+      </c>
+      <c r="BY26" t="n">
         <v>5.130969454243681</v>
       </c>
-      <c r="BT26" t="n">
-        <v>0</v>
+      <c r="BZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA26" t="n">
+        <v>-17.52130851389177</v>
       </c>
     </row>
     <row r="27">
@@ -6369,31 +6929,52 @@
         <v>22.48334916864615</v>
       </c>
       <c r="BL27" t="n">
+        <v>17.65555555555555</v>
+      </c>
+      <c r="BM27" t="n">
         <v>16.86666666666667</v>
       </c>
-      <c r="BM27" t="n">
+      <c r="BN27" t="n">
         <v>0.2900000000000009</v>
       </c>
-      <c r="BN27" t="n">
+      <c r="BO27" t="n">
         <v>3.390000000000001</v>
       </c>
-      <c r="BO27" t="n">
+      <c r="BP27" t="n">
         <v>-3.5</v>
       </c>
-      <c r="BP27" t="n">
+      <c r="BQ27" t="n">
         <v>0.3900000000000006</v>
       </c>
-      <c r="BQ27" t="n">
+      <c r="BR27" t="n">
         <v>14.65984825493179</v>
       </c>
-      <c r="BR27" t="n">
+      <c r="BS27" t="n">
         <v>0.3833333333333334</v>
       </c>
-      <c r="BS27" t="n">
+      <c r="BT27" t="n">
+        <v>80.45216995447677</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV27" t="n">
+        <v>62.30458974358983</v>
+      </c>
+      <c r="BW27" t="n">
+        <v>54.22876484560577</v>
+      </c>
+      <c r="BX27" t="n">
+        <v>71.71905555555561</v>
+      </c>
+      <c r="BY27" t="n">
         <v>5.593728668145234</v>
       </c>
-      <c r="BT27" t="n">
-        <v>0</v>
+      <c r="BZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA27" t="n">
+        <v>-18.14758021088694</v>
       </c>
     </row>
     <row r="28">
@@ -6587,31 +7168,52 @@
         <v>23.85171021377682</v>
       </c>
       <c r="BL28" t="n">
+        <v>19.10650969529086</v>
+      </c>
+      <c r="BM28" t="n">
         <v>12.11666666666667</v>
       </c>
-      <c r="BM28" t="n">
+      <c r="BN28" t="n">
         <v>0.7999999999999989</v>
       </c>
-      <c r="BN28" t="n">
+      <c r="BO28" t="n">
         <v>5.099999999999998</v>
       </c>
-      <c r="BO28" t="n">
+      <c r="BP28" t="n">
         <v>-3.609999999999999</v>
       </c>
-      <c r="BP28" t="n">
+      <c r="BQ28" t="n">
         <v>-0.3999999999999986</v>
       </c>
-      <c r="BQ28" t="n">
+      <c r="BR28" t="n">
         <v>13.64753424657538</v>
       </c>
-      <c r="BR28" t="n">
+      <c r="BS28" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="BS28" t="n">
+      <c r="BT28" t="n">
+        <v>73.84621004566225</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV28" t="n">
+        <v>47.00504481434089</v>
+      </c>
+      <c r="BW28" t="n">
+        <v>38.70199524940629</v>
+      </c>
+      <c r="BX28" t="n">
+        <v>56.65872576177311</v>
+      </c>
+      <c r="BY28" t="n">
         <v>8.011134127304393</v>
       </c>
-      <c r="BT28" t="n">
+      <c r="BZ28" t="n">
         <v>1</v>
+      </c>
+      <c r="CA28" t="n">
+        <v>-26.84116523132136</v>
       </c>
     </row>
     <row r="29">
@@ -6805,31 +7407,52 @@
         <v>23.96952380952389</v>
       </c>
       <c r="BL29" t="n">
+        <v>18.41703601108033</v>
+      </c>
+      <c r="BM29" t="n">
         <v>8.866666666666667</v>
       </c>
-      <c r="BM29" t="n">
+      <c r="BN29" t="n">
         <v>1.299999999999999</v>
       </c>
-      <c r="BN29" t="n">
+      <c r="BO29" t="n">
         <v>4</v>
       </c>
-      <c r="BO29" t="n">
+      <c r="BP29" t="n">
         <v>-3.81</v>
       </c>
-      <c r="BP29" t="n">
+      <c r="BQ29" t="n">
         <v>0.7899999999999991</v>
       </c>
-      <c r="BQ29" t="n">
+      <c r="BR29" t="n">
         <v>13.7506775700935</v>
       </c>
-      <c r="BR29" t="n">
+      <c r="BS29" t="n">
         <v>5.916666666666667</v>
       </c>
-      <c r="BS29" t="n">
+      <c r="BT29" t="n">
+        <v>71.29969626168219</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>26</v>
+      </c>
+      <c r="BV29" t="n">
+        <v>46.51947435897447</v>
+      </c>
+      <c r="BW29" t="n">
+        <v>32.78971428571441</v>
+      </c>
+      <c r="BX29" t="n">
+        <v>62.47119113573436</v>
+      </c>
+      <c r="BY29" t="n">
         <v>7.647078840163042</v>
       </c>
-      <c r="BT29" t="n">
+      <c r="BZ29" t="n">
         <v>1</v>
+      </c>
+      <c r="CA29" t="n">
+        <v>-24.78022190270772</v>
       </c>
     </row>
     <row r="30">
@@ -7023,31 +7646,52 @@
         <v>22.01207142857151</v>
       </c>
       <c r="BL30" t="n">
+        <v>17.14329639889198</v>
+      </c>
+      <c r="BM30" t="n">
         <v>14.41666666666667</v>
       </c>
-      <c r="BM30" t="n">
+      <c r="BN30" t="n">
         <v>1.31</v>
       </c>
-      <c r="BN30" t="n">
+      <c r="BO30" t="n">
         <v>3.599999999999998</v>
       </c>
-      <c r="BO30" t="n">
+      <c r="BP30" t="n">
         <v>-3.31</v>
       </c>
-      <c r="BP30" t="n">
+      <c r="BQ30" t="n">
         <v>-2.5</v>
       </c>
-      <c r="BQ30" t="n">
+      <c r="BR30" t="n">
         <v>14.09015220700154</v>
       </c>
-      <c r="BR30" t="n">
+      <c r="BS30" t="n">
         <v>0.2666666666666667</v>
       </c>
-      <c r="BS30" t="n">
+      <c r="BT30" t="n">
+        <v>83.97978691019804</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV30" t="n">
+        <v>65.76451282051303</v>
+      </c>
+      <c r="BW30" t="n">
+        <v>63.05416666666668</v>
+      </c>
+      <c r="BX30" t="n">
+        <v>68.88772853185615</v>
+      </c>
+      <c r="BY30" t="n">
         <v>5.669988818639567</v>
       </c>
-      <c r="BT30" t="n">
+      <c r="BZ30" t="n">
         <v>1</v>
+      </c>
+      <c r="CA30" t="n">
+        <v>-18.21527408968501</v>
       </c>
     </row>
     <row r="31">
@@ -7241,31 +7885,52 @@
         <v>25.83785714285728</v>
       </c>
       <c r="BL31" t="n">
+        <v>20.00313019390583</v>
+      </c>
+      <c r="BM31" t="n">
         <v>11.18333333333333</v>
       </c>
-      <c r="BM31" t="n">
+      <c r="BN31" t="n">
         <v>0.7999999999999989</v>
       </c>
-      <c r="BN31" t="n">
+      <c r="BO31" t="n">
         <v>5.309999999999999</v>
       </c>
-      <c r="BO31" t="n">
+      <c r="BP31" t="n">
         <v>-4.109999999999999</v>
       </c>
-      <c r="BP31" t="n">
+      <c r="BQ31" t="n">
         <v>3.100000000000001</v>
       </c>
-      <c r="BQ31" t="n">
+      <c r="BR31" t="n">
         <v>14.20526555386952</v>
       </c>
-      <c r="BR31" t="n">
+      <c r="BS31" t="n">
         <v>1.816666666666667</v>
       </c>
-      <c r="BS31" t="n">
+      <c r="BT31" t="n">
+        <v>80.61553869499249</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV31" t="n">
+        <v>57.51117948717949</v>
+      </c>
+      <c r="BW31" t="n">
+        <v>46.47530952380967</v>
+      </c>
+      <c r="BX31" t="n">
+        <v>70.31022160664844</v>
+      </c>
+      <c r="BY31" t="n">
         <v>8.929016497412649</v>
       </c>
-      <c r="BT31" t="n">
+      <c r="BZ31" t="n">
         <v>2</v>
+      </c>
+      <c r="CA31" t="n">
+        <v>-23.104359207813</v>
       </c>
     </row>
     <row r="32">
@@ -7459,31 +8124,52 @@
         <v>25.5159188544154</v>
       </c>
       <c r="BL32" t="n">
+        <v>21.32011080332411</v>
+      </c>
+      <c r="BM32" t="n">
         <v>10.56666666666667</v>
       </c>
-      <c r="BM32" t="n">
+      <c r="BN32" t="n">
         <v>1.799999999999999</v>
       </c>
-      <c r="BN32" t="n">
+      <c r="BO32" t="n">
         <v>4.690000000000001</v>
       </c>
-      <c r="BO32" t="n">
+      <c r="BP32" t="n">
         <v>-3.699999999999999</v>
       </c>
-      <c r="BP32" t="n">
+      <c r="BQ32" t="n">
         <v>3.289999999999999</v>
       </c>
-      <c r="BQ32" t="n">
+      <c r="BR32" t="n">
         <v>16.98000000000011</v>
       </c>
-      <c r="BR32" t="n">
+      <c r="BS32" t="n">
         <v>0.9</v>
       </c>
-      <c r="BS32" t="n">
+      <c r="BT32" t="n">
+        <v>86.92996960486344</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV32" t="n">
+        <v>58.41209242618744</v>
+      </c>
+      <c r="BW32" t="n">
+        <v>49.83434367541783</v>
+      </c>
+      <c r="BX32" t="n">
+        <v>68.34077562326893</v>
+      </c>
+      <c r="BY32" t="n">
         <v>6.588202824133536</v>
       </c>
-      <c r="BT32" t="n">
+      <c r="BZ32" t="n">
         <v>2</v>
+      </c>
+      <c r="CA32" t="n">
+        <v>-28.517877178676</v>
       </c>
     </row>
     <row r="33">
@@ -7677,31 +8363,52 @@
         <v>17.29237529691216</v>
       </c>
       <c r="BL33" t="n">
+        <v>16.87806094182825</v>
+      </c>
+      <c r="BM33" t="n">
         <v>5.583333333333333</v>
       </c>
-      <c r="BM33" t="n">
+      <c r="BN33" t="n">
         <v>0.8900000000000006</v>
       </c>
-      <c r="BN33" t="n">
+      <c r="BO33" t="n">
         <v>2.500000000000002</v>
       </c>
-      <c r="BO33" t="n">
+      <c r="BP33" t="n">
         <v>-0.9000000000000004</v>
       </c>
-      <c r="BP33" t="n">
+      <c r="BQ33" t="n">
         <v>-6.609999999999999</v>
       </c>
-      <c r="BQ33" t="n">
+      <c r="BR33" t="n">
         <v>15.46848024316111</v>
       </c>
-      <c r="BR33" t="n">
-        <v>0</v>
-      </c>
       <c r="BS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT33" t="n">
+        <v>88.56522796352618</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV33" t="n">
+        <v>86.1353265044817</v>
+      </c>
+      <c r="BW33" t="n">
+        <v>82.77294536817101</v>
+      </c>
+      <c r="BX33" t="n">
+        <v>90.05423822714675</v>
+      </c>
+      <c r="BY33" t="n">
         <v>1.632390435456157</v>
       </c>
-      <c r="BT33" t="n">
+      <c r="BZ33" t="n">
         <v>2</v>
+      </c>
+      <c r="CA33" t="n">
+        <v>-2.429901459044487</v>
       </c>
     </row>
     <row r="34">
@@ -7895,31 +8602,52 @@
         <v>14.90489311163899</v>
       </c>
       <c r="BL34" t="n">
-        <v>0</v>
+        <v>14.51670360110806</v>
       </c>
       <c r="BM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN34" t="n">
         <v>0.2900000000000009</v>
       </c>
-      <c r="BN34" t="n">
+      <c r="BO34" t="n">
         <v>1.200000000000001</v>
       </c>
-      <c r="BO34" t="n">
+      <c r="BP34" t="n">
         <v>-3.5</v>
       </c>
-      <c r="BP34" t="n">
+      <c r="BQ34" t="n">
         <v>-9.609999999999999</v>
       </c>
-      <c r="BQ34" t="n">
+      <c r="BR34" t="n">
         <v>13.95250379362678</v>
       </c>
-      <c r="BR34" t="n">
-        <v>0</v>
-      </c>
       <c r="BS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT34" t="n">
+        <v>90.79763277693527</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV34" t="n">
+        <v>90.09147247119128</v>
+      </c>
+      <c r="BW34" t="n">
+        <v>90.62201900237548</v>
+      </c>
+      <c r="BX34" t="n">
+        <v>89.47360110803317</v>
+      </c>
+      <c r="BY34" t="n">
         <v>0.7721953100864347</v>
       </c>
-      <c r="BT34" t="n">
+      <c r="BZ34" t="n">
         <v>2</v>
+      </c>
+      <c r="CA34" t="n">
+        <v>-0.7061603057439925</v>
       </c>
     </row>
     <row r="35">
@@ -8113,31 +8841,52 @@
         <v>18.01439429928745</v>
       </c>
       <c r="BL35" t="n">
+        <v>16.68908587257619</v>
+      </c>
+      <c r="BM35" t="n">
         <v>7.983333333333333</v>
       </c>
-      <c r="BM35" t="n">
+      <c r="BN35" t="n">
         <v>0.08999999999999986</v>
       </c>
-      <c r="BN35" t="n">
+      <c r="BO35" t="n">
         <v>2.489999999999998</v>
       </c>
-      <c r="BO35" t="n">
+      <c r="BP35" t="n">
         <v>-1.9</v>
       </c>
-      <c r="BP35" t="n">
+      <c r="BQ35" t="n">
         <v>-4.109999999999999</v>
       </c>
-      <c r="BQ35" t="n">
+      <c r="BR35" t="n">
         <v>14.32415781487108</v>
       </c>
-      <c r="BR35" t="n">
+      <c r="BS35" t="n">
         <v>5.25</v>
       </c>
-      <c r="BS35" t="n">
+      <c r="BT35" t="n">
+        <v>76.6704400606982</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>39</v>
+      </c>
+      <c r="BV35" t="n">
+        <v>60.62763124199765</v>
+      </c>
+      <c r="BW35" t="n">
+        <v>51.80399049881242</v>
+      </c>
+      <c r="BX35" t="n">
+        <v>70.86368421052654</v>
+      </c>
+      <c r="BY35" t="n">
         <v>3.075739752350504</v>
       </c>
-      <c r="BT35" t="n">
+      <c r="BZ35" t="n">
         <v>2</v>
+      </c>
+      <c r="CA35" t="n">
+        <v>-16.04280881870055</v>
       </c>
     </row>
     <row r="36">
@@ -8331,31 +9080,52 @@
         <v>19.06420427553447</v>
       </c>
       <c r="BL36" t="n">
+        <v>15.63849582172702</v>
+      </c>
+      <c r="BM36" t="n">
         <v>10.31666666666667</v>
       </c>
-      <c r="BM36" t="n">
+      <c r="BN36" t="n">
         <v>0.5</v>
       </c>
-      <c r="BN36" t="n">
+      <c r="BO36" t="n">
         <v>4.210000000000001</v>
       </c>
-      <c r="BO36" t="n">
+      <c r="BP36" t="n">
         <v>-3.199999999999999</v>
       </c>
-      <c r="BP36" t="n">
+      <c r="BQ36" t="n">
         <v>-2.899999999999999</v>
       </c>
-      <c r="BQ36" t="n">
+      <c r="BR36" t="n">
         <v>13.87804281345568</v>
       </c>
-      <c r="BR36" t="n">
+      <c r="BS36" t="n">
         <v>10.9</v>
       </c>
-      <c r="BS36" t="n">
+      <c r="BT36" t="n">
+        <v>59.56304281345582</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>132</v>
+      </c>
+      <c r="BV36" t="n">
+        <v>46.78043645699633</v>
+      </c>
+      <c r="BW36" t="n">
+        <v>35.17323040380057</v>
+      </c>
+      <c r="BX36" t="n">
+        <v>60.33793871866317</v>
+      </c>
+      <c r="BY36" t="n">
         <v>3.606231897712593</v>
       </c>
-      <c r="BT36" t="n">
+      <c r="BZ36" t="n">
         <v>2</v>
+      </c>
+      <c r="CA36" t="n">
+        <v>-12.78260635645948</v>
       </c>
     </row>
     <row r="37">
@@ -8549,31 +9319,52 @@
         <v>21.57155502392348</v>
       </c>
       <c r="BL37" t="n">
+        <v>17.93745152354572</v>
+      </c>
+      <c r="BM37" t="n">
         <v>4.366666666666666</v>
       </c>
-      <c r="BM37" t="n">
+      <c r="BN37" t="n">
         <v>1.199999999999999</v>
       </c>
-      <c r="BN37" t="n">
+      <c r="BO37" t="n">
         <v>2.300000000000001</v>
       </c>
-      <c r="BO37" t="n">
+      <c r="BP37" t="n">
         <v>-3.699999999999999</v>
       </c>
-      <c r="BP37" t="n">
+      <c r="BQ37" t="n">
         <v>-0.2100000000000009</v>
       </c>
-      <c r="BQ37" t="n">
+      <c r="BR37" t="n">
         <v>15.97301972685888</v>
       </c>
-      <c r="BR37" t="n">
+      <c r="BS37" t="n">
         <v>10.98333333333333</v>
       </c>
-      <c r="BS37" t="n">
+      <c r="BT37" t="n">
+        <v>70.30136570561474</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>128</v>
+      </c>
+      <c r="BV37" t="n">
+        <v>47.22669665809794</v>
+      </c>
+      <c r="BW37" t="n">
+        <v>44.95705741626811</v>
+      </c>
+      <c r="BX37" t="n">
+        <v>49.81806094182843</v>
+      </c>
+      <c r="BY37" t="n">
         <v>3.908252766714522</v>
       </c>
-      <c r="BT37" t="n">
+      <c r="BZ37" t="n">
         <v>2</v>
+      </c>
+      <c r="CA37" t="n">
+        <v>-23.07466904751681</v>
       </c>
     </row>
     <row r="38">
@@ -8767,31 +9558,52 @@
         <v>21.54185273159153</v>
       </c>
       <c r="BL38" t="n">
+        <v>17.55196675900278</v>
+      </c>
+      <c r="BM38" t="n">
         <v>11.63333333333333</v>
       </c>
-      <c r="BM38" t="n">
+      <c r="BN38" t="n">
         <v>0.7999999999999989</v>
       </c>
-      <c r="BN38" t="n">
+      <c r="BO38" t="n">
         <v>6.300000000000001</v>
       </c>
-      <c r="BO38" t="n">
+      <c r="BP38" t="n">
         <v>-3.199999999999999</v>
       </c>
-      <c r="BP38" t="n">
+      <c r="BQ38" t="n">
         <v>-2.800000000000001</v>
       </c>
-      <c r="BQ38" t="n">
+      <c r="BR38" t="n">
         <v>14.32197268588775</v>
       </c>
-      <c r="BR38" t="n">
+      <c r="BS38" t="n">
         <v>10.98333333333333</v>
       </c>
-      <c r="BS38" t="n">
+      <c r="BT38" t="n">
+        <v>64.88779969651009</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>5</v>
+      </c>
+      <c r="BV38" t="n">
+        <v>45.48629961587739</v>
+      </c>
+      <c r="BW38" t="n">
+        <v>37.62869358669844</v>
+      </c>
+      <c r="BX38" t="n">
+        <v>54.62440443213317</v>
+      </c>
+      <c r="BY38" t="n">
         <v>5.376849337159745</v>
       </c>
-      <c r="BT38" t="n">
+      <c r="BZ38" t="n">
         <v>2</v>
+      </c>
+      <c r="CA38" t="n">
+        <v>-19.4015000806327</v>
       </c>
     </row>
     <row r="39">
@@ -8985,31 +9797,52 @@
         <v>25.42114285714297</v>
       </c>
       <c r="BL39" t="n">
+        <v>20.62091666666667</v>
+      </c>
+      <c r="BM39" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="BM39" t="n">
+      <c r="BN39" t="n">
         <v>1.31</v>
       </c>
-      <c r="BN39" t="n">
+      <c r="BO39" t="n">
         <v>2.5</v>
       </c>
-      <c r="BO39" t="n">
+      <c r="BP39" t="n">
         <v>-3.31</v>
       </c>
-      <c r="BP39" t="n">
+      <c r="BQ39" t="n">
         <v>3.199999999999999</v>
       </c>
-      <c r="BQ39" t="n">
+      <c r="BR39" t="n">
         <v>18.1224734446131</v>
       </c>
-      <c r="BR39" t="n">
+      <c r="BS39" t="n">
         <v>3.283333333333333</v>
       </c>
-      <c r="BS39" t="n">
+      <c r="BT39" t="n">
+        <v>80.61474962063748</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>63</v>
+      </c>
+      <c r="BV39" t="n">
+        <v>46.4028369704753</v>
+      </c>
+      <c r="BW39" t="n">
+        <v>41.15333333333346</v>
+      </c>
+      <c r="BX39" t="n">
+        <v>52.49391666666692</v>
+      </c>
+      <c r="BY39" t="n">
         <v>5.078309610585958</v>
       </c>
-      <c r="BT39" t="n">
+      <c r="BZ39" t="n">
         <v>2</v>
+      </c>
+      <c r="CA39" t="n">
+        <v>-34.21191265016218</v>
       </c>
     </row>
     <row r="40">
@@ -9203,31 +10036,52 @@
         <v>23.48439429928749</v>
       </c>
       <c r="BL40" t="n">
+        <v>19.64750692520778</v>
+      </c>
+      <c r="BM40" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="BM40" t="n">
+      <c r="BN40" t="n">
         <v>1.81</v>
       </c>
-      <c r="BN40" t="n">
+      <c r="BO40" t="n">
         <v>6.199999999999999</v>
       </c>
-      <c r="BO40" t="n">
+      <c r="BP40" t="n">
         <v>-2.81</v>
       </c>
-      <c r="BP40" t="n">
+      <c r="BQ40" t="n">
         <v>0.6999999999999993</v>
       </c>
-      <c r="BQ40" t="n">
+      <c r="BR40" t="n">
         <v>15.24474962063734</v>
       </c>
-      <c r="BR40" t="n">
+      <c r="BS40" t="n">
         <v>8.733333333333333</v>
       </c>
-      <c r="BS40" t="n">
+      <c r="BT40" t="n">
+        <v>59.59271623672228</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV40" t="n">
+        <v>47.98687580025612</v>
+      </c>
+      <c r="BW40" t="n">
+        <v>31.99817102137784</v>
+      </c>
+      <c r="BX40" t="n">
+        <v>66.61224376731332</v>
+      </c>
+      <c r="BY40" t="n">
         <v>6.463419393447303</v>
       </c>
-      <c r="BT40" t="n">
+      <c r="BZ40" t="n">
         <v>2</v>
+      </c>
+      <c r="CA40" t="n">
+        <v>-11.60584043646616</v>
       </c>
     </row>
     <row r="41">
@@ -9421,31 +10275,52 @@
         <v>23.50372921615209</v>
       </c>
       <c r="BL41" t="n">
+        <v>18.41285318559556</v>
+      </c>
+      <c r="BM41" t="n">
         <v>3.516666666666667</v>
       </c>
-      <c r="BM41" t="n">
+      <c r="BN41" t="n">
         <v>0.5899999999999999</v>
       </c>
-      <c r="BN41" t="n">
+      <c r="BO41" t="n">
         <v>8.200000000000001</v>
       </c>
-      <c r="BO41" t="n">
+      <c r="BP41" t="n">
         <v>-4.109999999999999</v>
       </c>
-      <c r="BP41" t="n">
+      <c r="BQ41" t="n">
         <v>-0.1099999999999994</v>
       </c>
-      <c r="BQ41" t="n">
+      <c r="BR41" t="n">
         <v>13.76599383667186</v>
       </c>
-      <c r="BR41" t="n">
+      <c r="BS41" t="n">
         <v>9.483333333333333</v>
       </c>
-      <c r="BS41" t="n">
+      <c r="BT41" t="n">
+        <v>57.10771956856725</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>122</v>
+      </c>
+      <c r="BV41" t="n">
+        <v>40.83841229193352</v>
+      </c>
+      <c r="BW41" t="n">
+        <v>29.76441805225661</v>
+      </c>
+      <c r="BX41" t="n">
+        <v>53.72401662049878</v>
+      </c>
+      <c r="BY41" t="n">
         <v>7.383314742073475</v>
       </c>
-      <c r="BT41" t="n">
+      <c r="BZ41" t="n">
         <v>2</v>
+      </c>
+      <c r="CA41" t="n">
+        <v>-16.26930727663373</v>
       </c>
     </row>
     <row r="42">
@@ -9639,31 +10514,52 @@
         <v>20.63770334928236</v>
       </c>
       <c r="BL42" t="n">
+        <v>17.22470914127424</v>
+      </c>
+      <c r="BM42" t="n">
         <v>1.15</v>
       </c>
-      <c r="BM42" t="n">
+      <c r="BN42" t="n">
         <v>1</v>
       </c>
-      <c r="BN42" t="n">
+      <c r="BO42" t="n">
         <v>2.900000000000002</v>
       </c>
-      <c r="BO42" t="n">
+      <c r="BP42" t="n">
         <v>-3.81</v>
       </c>
-      <c r="BP42" t="n">
+      <c r="BQ42" t="n">
         <v>-3.399999999999999</v>
       </c>
-      <c r="BQ42" t="n">
+      <c r="BR42" t="n">
         <v>14.56762658227856</v>
       </c>
-      <c r="BR42" t="n">
+      <c r="BS42" t="n">
         <v>2.45</v>
       </c>
-      <c r="BS42" t="n">
+      <c r="BT42" t="n">
+        <v>58.7298892405064</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>24</v>
+      </c>
+      <c r="BV42" t="n">
+        <v>39.41767352185104</v>
+      </c>
+      <c r="BW42" t="n">
+        <v>31.87294258373216</v>
+      </c>
+      <c r="BX42" t="n">
+        <v>48.13063711911369</v>
+      </c>
+      <c r="BY42" t="n">
         <v>4.488517376590446</v>
       </c>
-      <c r="BT42" t="n">
+      <c r="BZ42" t="n">
         <v>2</v>
+      </c>
+      <c r="CA42" t="n">
+        <v>-19.31221571865537</v>
       </c>
     </row>
     <row r="43">
@@ -9857,31 +10753,52 @@
         <v>15.45223809523813</v>
       </c>
       <c r="BL43" t="n">
+        <v>14.35858725761775</v>
+      </c>
+      <c r="BM43" t="n">
         <v>7.583333333333333</v>
       </c>
-      <c r="BM43" t="n">
+      <c r="BN43" t="n">
         <v>3.209999999999999</v>
       </c>
-      <c r="BN43" t="n">
+      <c r="BO43" t="n">
         <v>1.1</v>
       </c>
-      <c r="BO43" t="n">
+      <c r="BP43" t="n">
         <v>-4.609999999999999</v>
       </c>
-      <c r="BP43" t="n">
+      <c r="BQ43" t="n">
         <v>-7.710000000000001</v>
       </c>
-      <c r="BQ43" t="n">
+      <c r="BR43" t="n">
         <v>14.14383915022765</v>
       </c>
-      <c r="BR43" t="n">
+      <c r="BS43" t="n">
         <v>3.15</v>
       </c>
-      <c r="BS43" t="n">
+      <c r="BT43" t="n">
+        <v>83.1245068285283</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV43" t="n">
+        <v>88.23797435897464</v>
+      </c>
+      <c r="BW43" t="n">
+        <v>90.0412619047619</v>
+      </c>
+      <c r="BX43" t="n">
+        <v>86.14457063711905</v>
+      </c>
+      <c r="BY43" t="n">
         <v>0.8030711061826956</v>
       </c>
-      <c r="BT43" t="n">
+      <c r="BZ43" t="n">
         <v>2</v>
+      </c>
+      <c r="CA43" t="n">
+        <v>5.113467530446343</v>
       </c>
     </row>
     <row r="44">
@@ -10075,31 +10992,52 @@
         <v>18.66138424821007</v>
       </c>
       <c r="BL44" t="n">
+        <v>17.90698060941829</v>
+      </c>
+      <c r="BM44" t="n">
         <v>14.35</v>
       </c>
-      <c r="BM44" t="n">
+      <c r="BN44" t="n">
         <v>0.5</v>
       </c>
-      <c r="BN44" t="n">
+      <c r="BO44" t="n">
         <v>3</v>
       </c>
-      <c r="BO44" t="n">
+      <c r="BP44" t="n">
         <v>-3</v>
       </c>
-      <c r="BP44" t="n">
+      <c r="BQ44" t="n">
         <v>-2.210000000000001</v>
       </c>
-      <c r="BQ44" t="n">
+      <c r="BR44" t="n">
         <v>14.39303951367785</v>
       </c>
-      <c r="BR44" t="n">
+      <c r="BS44" t="n">
         <v>10.96666666666667</v>
       </c>
-      <c r="BS44" t="n">
+      <c r="BT44" t="n">
+        <v>66.67870820668688</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV44" t="n">
+        <v>54.01062901155357</v>
+      </c>
+      <c r="BW44" t="n">
+        <v>46.03322195704063</v>
+      </c>
+      <c r="BX44" t="n">
+        <v>63.23587257617754</v>
+      </c>
+      <c r="BY44" t="n">
         <v>3.915484234717599</v>
       </c>
-      <c r="BT44" t="n">
+      <c r="BZ44" t="n">
         <v>2</v>
+      </c>
+      <c r="CA44" t="n">
+        <v>-12.66807919513331</v>
       </c>
     </row>
     <row r="45">
@@ -10293,31 +11231,52 @@
         <v>20.73978622327793</v>
       </c>
       <c r="BL45" t="n">
+        <v>17.42636111111112</v>
+      </c>
+      <c r="BM45" t="n">
         <v>9.483333333333333</v>
       </c>
-      <c r="BM45" t="n">
+      <c r="BN45" t="n">
         <v>0.7099999999999991</v>
       </c>
-      <c r="BN45" t="n">
+      <c r="BO45" t="n">
         <v>4.899999999999999</v>
       </c>
-      <c r="BO45" t="n">
+      <c r="BP45" t="n">
         <v>-2.699999999999999</v>
       </c>
-      <c r="BP45" t="n">
+      <c r="BQ45" t="n">
         <v>-2.210000000000001</v>
       </c>
-      <c r="BQ45" t="n">
+      <c r="BR45" t="n">
         <v>13.40549317147196</v>
       </c>
-      <c r="BR45" t="n">
+      <c r="BS45" t="n">
         <v>9.016666666666667</v>
       </c>
-      <c r="BS45" t="n">
+      <c r="BT45" t="n">
+        <v>73.03127465857366</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>71</v>
+      </c>
+      <c r="BV45" t="n">
+        <v>47.21948717948732</v>
+      </c>
+      <c r="BW45" t="n">
+        <v>35.42256532066517</v>
+      </c>
+      <c r="BX45" t="n">
+        <v>60.98416666666691</v>
+      </c>
+      <c r="BY45" t="n">
         <v>5.802122213143601</v>
       </c>
-      <c r="BT45" t="n">
+      <c r="BZ45" t="n">
         <v>2</v>
+      </c>
+      <c r="CA45" t="n">
+        <v>-25.81178747908634</v>
       </c>
     </row>
     <row r="46">
@@ -10511,31 +11470,52 @@
         <v>23.10582338902158</v>
       </c>
       <c r="BL46" t="n">
+        <v>18.48330555555555</v>
+      </c>
+      <c r="BM46" t="n">
         <v>10.76666666666667</v>
       </c>
-      <c r="BM46" t="n">
+      <c r="BN46" t="n">
         <v>0.8100000000000005</v>
       </c>
-      <c r="BN46" t="n">
+      <c r="BO46" t="n">
         <v>5.289999999999999</v>
       </c>
-      <c r="BO46" t="n">
+      <c r="BP46" t="n">
         <v>-4.109999999999999</v>
       </c>
-      <c r="BP46" t="n">
+      <c r="BQ46" t="n">
         <v>0.3900000000000006</v>
       </c>
-      <c r="BQ46" t="n">
+      <c r="BR46" t="n">
         <v>14.09295558958655</v>
       </c>
-      <c r="BR46" t="n">
+      <c r="BS46" t="n">
         <v>9.35</v>
       </c>
-      <c r="BS46" t="n">
+      <c r="BT46" t="n">
+        <v>58.16905053598789</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV46" t="n">
+        <v>46.70758354755811</v>
+      </c>
+      <c r="BW46" t="n">
+        <v>36.9887828162292</v>
+      </c>
+      <c r="BX46" t="n">
+        <v>57.99525000000025</v>
+      </c>
+      <c r="BY46" t="n">
         <v>6.870977572367302</v>
       </c>
-      <c r="BT46" t="n">
+      <c r="BZ46" t="n">
         <v>2</v>
+      </c>
+      <c r="CA46" t="n">
+        <v>-11.46146698842978</v>
       </c>
     </row>
     <row r="47">
@@ -10729,31 +11709,52 @@
         <v>22.4965714285715</v>
       </c>
       <c r="BL47" t="n">
+        <v>18.47836111111113</v>
+      </c>
+      <c r="BM47" t="n">
         <v>0.5666666666666667</v>
       </c>
-      <c r="BM47" t="n">
+      <c r="BN47" t="n">
         <v>0.7099999999999991</v>
       </c>
-      <c r="BN47" t="n">
+      <c r="BO47" t="n">
         <v>5.300000000000001</v>
       </c>
-      <c r="BO47" t="n">
+      <c r="BP47" t="n">
         <v>-3.5</v>
       </c>
-      <c r="BP47" t="n">
+      <c r="BQ47" t="n">
         <v>-0.2100000000000009</v>
       </c>
-      <c r="BQ47" t="n">
+      <c r="BR47" t="n">
         <v>14.48669195751141</v>
       </c>
-      <c r="BR47" t="n">
+      <c r="BS47" t="n">
         <v>6.25</v>
       </c>
-      <c r="BS47" t="n">
+      <c r="BT47" t="n">
+        <v>54.00679817905952</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV47" t="n">
+        <v>40.55799743260611</v>
+      </c>
+      <c r="BW47" t="n">
+        <v>31.86814285714294</v>
+      </c>
+      <c r="BX47" t="n">
+        <v>50.66572222222241</v>
+      </c>
+      <c r="BY47" t="n">
         <v>6.150509582925208</v>
       </c>
-      <c r="BT47" t="n">
+      <c r="BZ47" t="n">
         <v>2</v>
+      </c>
+      <c r="CA47" t="n">
+        <v>-13.4488007464534</v>
       </c>
     </row>
     <row r="48">
@@ -10947,31 +11948,52 @@
         <v>24.20702380952389</v>
       </c>
       <c r="BL48" t="n">
+        <v>18.72686980609421</v>
+      </c>
+      <c r="BM48" t="n">
         <v>4.95</v>
       </c>
-      <c r="BM48" t="n">
+      <c r="BN48" t="n">
         <v>1.31</v>
       </c>
-      <c r="BN48" t="n">
+      <c r="BO48" t="n">
         <v>6.809999999999999</v>
       </c>
-      <c r="BO48" t="n">
+      <c r="BP48" t="n">
         <v>-3.31</v>
       </c>
-      <c r="BP48" t="n">
+      <c r="BQ48" t="n">
         <v>0.1999999999999993</v>
       </c>
-      <c r="BQ48" t="n">
+      <c r="BR48" t="n">
         <v>13.98106221547805</v>
       </c>
-      <c r="BR48" t="n">
+      <c r="BS48" t="n">
         <v>10.01666666666667</v>
       </c>
-      <c r="BS48" t="n">
+      <c r="BT48" t="n">
+        <v>67.38494688922604</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>78</v>
+      </c>
+      <c r="BV48" t="n">
+        <v>36.7621282051283</v>
+      </c>
+      <c r="BW48" t="n">
+        <v>27.64614285714295</v>
+      </c>
+      <c r="BX48" t="n">
+        <v>47.33595567867049</v>
+      </c>
+      <c r="BY48" t="n">
         <v>7.687848040932357</v>
       </c>
-      <c r="BT48" t="n">
+      <c r="BZ48" t="n">
         <v>2</v>
+      </c>
+      <c r="CA48" t="n">
+        <v>-30.62281868409774</v>
       </c>
     </row>
     <row r="49">
@@ -11165,31 +12187,52 @@
         <v>28.87980997624718</v>
       </c>
       <c r="BL49" t="n">
+        <v>20.88880886426594</v>
+      </c>
+      <c r="BM49" t="n">
         <v>9.6</v>
       </c>
-      <c r="BM49" t="n">
+      <c r="BN49" t="n">
         <v>1.110000000000001</v>
       </c>
-      <c r="BN49" t="n">
+      <c r="BO49" t="n">
         <v>7.399999999999999</v>
       </c>
-      <c r="BO49" t="n">
+      <c r="BP49" t="n">
         <v>-3.4</v>
       </c>
-      <c r="BP49" t="n">
+      <c r="BQ49" t="n">
         <v>5.890000000000001</v>
       </c>
-      <c r="BQ49" t="n">
+      <c r="BR49" t="n">
         <v>15.10103343465049</v>
       </c>
-      <c r="BR49" t="n">
+      <c r="BS49" t="n">
         <v>8.4</v>
       </c>
-      <c r="BS49" t="n">
+      <c r="BT49" t="n">
+        <v>70.35996960486329</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>42</v>
+      </c>
+      <c r="BV49" t="n">
+        <v>43.04719590268919</v>
+      </c>
+      <c r="BW49" t="n">
+        <v>35.18484560570084</v>
+      </c>
+      <c r="BX49" t="n">
+        <v>52.19595567867061</v>
+      </c>
+      <c r="BY49" t="n">
         <v>10.08355043218702</v>
       </c>
-      <c r="BT49" t="n">
+      <c r="BZ49" t="n">
         <v>3</v>
+      </c>
+      <c r="CA49" t="n">
+        <v>-27.31277370217411</v>
       </c>
     </row>
     <row r="50">
@@ -11383,31 +12426,52 @@
         <v>27.05102137767233</v>
       </c>
       <c r="BL50" t="n">
+        <v>21.47405555555558</v>
+      </c>
+      <c r="BM50" t="n">
         <v>12.45</v>
       </c>
-      <c r="BM50" t="n">
+      <c r="BN50" t="n">
         <v>1</v>
       </c>
-      <c r="BN50" t="n">
+      <c r="BO50" t="n">
         <v>5.689999999999998</v>
       </c>
-      <c r="BO50" t="n">
+      <c r="BP50" t="n">
         <v>-3.699999999999999</v>
       </c>
-      <c r="BP50" t="n">
+      <c r="BQ50" t="n">
         <v>5.600000000000001</v>
       </c>
-      <c r="BQ50" t="n">
+      <c r="BR50" t="n">
         <v>15.05001517450681</v>
       </c>
-      <c r="BR50" t="n">
+      <c r="BS50" t="n">
         <v>1.55</v>
       </c>
-      <c r="BS50" t="n">
+      <c r="BT50" t="n">
+        <v>82.82095599393028</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>45</v>
+      </c>
+      <c r="BV50" t="n">
+        <v>43.56267948717969</v>
+      </c>
+      <c r="BW50" t="n">
+        <v>33.64885985748226</v>
+      </c>
+      <c r="BX50" t="n">
+        <v>55.11866666666693</v>
+      </c>
+      <c r="BY50" t="n">
         <v>9.422869440877912</v>
       </c>
-      <c r="BT50" t="n">
+      <c r="BZ50" t="n">
         <v>4</v>
+      </c>
+      <c r="CA50" t="n">
+        <v>-39.25827650675059</v>
       </c>
     </row>
     <row r="51">
@@ -11601,31 +12665,52 @@
         <v>22.93318181818191</v>
       </c>
       <c r="BL51" t="n">
+        <v>17.46036011080334</v>
+      </c>
+      <c r="BM51" t="n">
         <v>9.916666666666666</v>
       </c>
-      <c r="BM51" t="n">
+      <c r="BN51" t="n">
         <v>1.59</v>
       </c>
-      <c r="BN51" t="n">
+      <c r="BO51" t="n">
         <v>1.5</v>
       </c>
-      <c r="BO51" t="n">
+      <c r="BP51" t="n">
         <v>-2.81</v>
       </c>
-      <c r="BP51" t="n">
-        <v>0</v>
-      </c>
       <c r="BQ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR51" t="n">
         <v>17.25875379939212</v>
       </c>
-      <c r="BR51" t="n">
+      <c r="BS51" t="n">
         <v>1.883333333333333</v>
       </c>
-      <c r="BS51" t="n">
+      <c r="BT51" t="n">
+        <v>86.43761398176316</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV51" t="n">
+        <v>78.73496143958899</v>
+      </c>
+      <c r="BW51" t="n">
+        <v>69.03112440191386</v>
+      </c>
+      <c r="BX51" t="n">
+        <v>89.9863988919667</v>
+      </c>
+      <c r="BY51" t="n">
         <v>3.139536689039868</v>
       </c>
-      <c r="BT51" t="n">
+      <c r="BZ51" t="n">
         <v>4</v>
+      </c>
+      <c r="CA51" t="n">
+        <v>-7.702652542174178</v>
       </c>
     </row>
     <row r="52">
@@ -11819,31 +12904,52 @@
         <v>15.84137767220899</v>
       </c>
       <c r="BL52" t="n">
-        <v>0</v>
+        <v>16.39927977839335</v>
       </c>
       <c r="BM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN52" t="n">
         <v>0.4000000000000004</v>
       </c>
-      <c r="BN52" t="n">
+      <c r="BO52" t="n">
         <v>0.4100000000000001</v>
       </c>
-      <c r="BO52" t="n">
+      <c r="BP52" t="n">
         <v>-1.699999999999999</v>
       </c>
-      <c r="BP52" t="n">
+      <c r="BQ52" t="n">
         <v>-6.609999999999999</v>
       </c>
-      <c r="BQ52" t="n">
+      <c r="BR52" t="n">
         <v>14.34077389984826</v>
       </c>
-      <c r="BR52" t="n">
-        <v>0</v>
-      </c>
       <c r="BS52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT52" t="n">
+        <v>93.14681335356634</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV52" t="n">
+        <v>93.12750320102442</v>
+      </c>
+      <c r="BW52" t="n">
+        <v>93.46688836104516</v>
+      </c>
+      <c r="BX52" t="n">
+        <v>92.72941828254838</v>
+      </c>
+      <c r="BY52" t="n">
         <v>1.756870146246541</v>
       </c>
-      <c r="BT52" t="n">
+      <c r="BZ52" t="n">
         <v>4</v>
+      </c>
+      <c r="CA52" t="n">
+        <v>-0.01931015254191948</v>
       </c>
     </row>
     <row r="53">
@@ -12037,31 +13143,52 @@
         <v>19.26315914489315</v>
       </c>
       <c r="BL53" t="n">
+        <v>17.15630555555555</v>
+      </c>
+      <c r="BM53" t="n">
         <v>7.033333333333333</v>
       </c>
-      <c r="BM53" t="n">
+      <c r="BN53" t="n">
         <v>0.5</v>
       </c>
-      <c r="BN53" t="n">
+      <c r="BO53" t="n">
         <v>1.41</v>
       </c>
-      <c r="BO53" t="n">
+      <c r="BP53" t="n">
         <v>-2.199999999999999</v>
       </c>
-      <c r="BP53" t="n">
+      <c r="BQ53" t="n">
         <v>-4.300000000000001</v>
       </c>
-      <c r="BQ53" t="n">
+      <c r="BR53" t="n">
         <v>14.26418816388472</v>
       </c>
-      <c r="BR53" t="n">
-        <v>0</v>
-      </c>
       <c r="BS53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT53" t="n">
+        <v>89.38095599393044</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV53" t="n">
+        <v>85.22552564102587</v>
+      </c>
+      <c r="BW53" t="n">
+        <v>82.12486935866977</v>
+      </c>
+      <c r="BX53" t="n">
+        <v>88.82786111111102</v>
+      </c>
+      <c r="BY53" t="n">
         <v>4.028337477141015</v>
       </c>
-      <c r="BT53" t="n">
+      <c r="BZ53" t="n">
         <v>4</v>
+      </c>
+      <c r="CA53" t="n">
+        <v>-4.155430352904574</v>
       </c>
     </row>
     <row r="54">
@@ -12255,31 +13382,52 @@
         <v>24.56266033254166</v>
       </c>
       <c r="BL54" t="n">
+        <v>19.09077777777778</v>
+      </c>
+      <c r="BM54" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="BM54" t="n">
+      <c r="BN54" t="n">
         <v>1.799999999999999</v>
       </c>
-      <c r="BN54" t="n">
+      <c r="BO54" t="n">
         <v>6.699999999999999</v>
       </c>
-      <c r="BO54" t="n">
+      <c r="BP54" t="n">
         <v>-4.609999999999999</v>
       </c>
-      <c r="BP54" t="n">
+      <c r="BQ54" t="n">
         <v>1</v>
       </c>
-      <c r="BQ54" t="n">
+      <c r="BR54" t="n">
         <v>14.55830534351151</v>
       </c>
-      <c r="BR54" t="n">
+      <c r="BS54" t="n">
         <v>4.466666666666667</v>
       </c>
-      <c r="BS54" t="n">
+      <c r="BT54" t="n">
+        <v>77.76748091603064</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>48</v>
+      </c>
+      <c r="BV54" t="n">
+        <v>38.89662820512834</v>
+      </c>
+      <c r="BW54" t="n">
+        <v>28.51463182897873</v>
+      </c>
+      <c r="BX54" t="n">
+        <v>51.00669444444453</v>
+      </c>
+      <c r="BY54" t="n">
         <v>7.478310041104038</v>
       </c>
-      <c r="BT54" t="n">
+      <c r="BZ54" t="n">
         <v>4</v>
+      </c>
+      <c r="CA54" t="n">
+        <v>-38.87085271090229</v>
       </c>
     </row>
     <row r="55">
@@ -12473,31 +13621,52 @@
         <v>24.03665083135402</v>
       </c>
       <c r="BL55" t="n">
+        <v>18.60425287356323</v>
+      </c>
+      <c r="BM55" t="n">
         <v>12.51666666666667</v>
       </c>
-      <c r="BM55" t="n">
+      <c r="BN55" t="n">
         <v>0.7999999999999989</v>
       </c>
-      <c r="BN55" t="n">
+      <c r="BO55" t="n">
         <v>7.1</v>
       </c>
-      <c r="BO55" t="n">
+      <c r="BP55" t="n">
         <v>-2.699999999999999</v>
       </c>
-      <c r="BP55" t="n">
+      <c r="BQ55" t="n">
         <v>0.1999999999999993</v>
       </c>
-      <c r="BQ55" t="n">
+      <c r="BR55" t="n">
         <v>14.79068285280732</v>
       </c>
-      <c r="BR55" t="n">
+      <c r="BS55" t="n">
         <v>8.833333333333334</v>
       </c>
-      <c r="BS55" t="n">
+      <c r="BT55" t="n">
+        <v>66.20482549317155</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>37</v>
+      </c>
+      <c r="BV55" t="n">
+        <v>50.97516927083348</v>
+      </c>
+      <c r="BW55" t="n">
+        <v>38.87453681710223</v>
+      </c>
+      <c r="BX55" t="n">
+        <v>65.59698275862097</v>
+      </c>
+      <c r="BY55" t="n">
         <v>6.784082772192807</v>
       </c>
-      <c r="BT55" t="n">
+      <c r="BZ55" t="n">
         <v>4</v>
+      </c>
+      <c r="CA55" t="n">
+        <v>-15.22965622233808</v>
       </c>
     </row>
     <row r="56">
@@ -12691,31 +13860,52 @@
         <v>23.79453681710222</v>
       </c>
       <c r="BL56" t="n">
+        <v>18.59972299168978</v>
+      </c>
+      <c r="BM56" t="n">
         <v>6.433333333333334</v>
       </c>
-      <c r="BM56" t="n">
+      <c r="BN56" t="n">
         <v>0.7000000000000011</v>
       </c>
-      <c r="BN56" t="n">
+      <c r="BO56" t="n">
         <v>4.5</v>
       </c>
-      <c r="BO56" t="n">
+      <c r="BP56" t="n">
         <v>-3.81</v>
       </c>
-      <c r="BP56" t="n">
-        <v>0</v>
-      </c>
       <c r="BQ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR56" t="n">
         <v>14.26689969604866</v>
       </c>
-      <c r="BR56" t="n">
+      <c r="BS56" t="n">
         <v>1.783333333333333</v>
       </c>
-      <c r="BS56" t="n">
+      <c r="BT56" t="n">
+        <v>83.8817325227967</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV56" t="n">
+        <v>55.07720870678634</v>
+      </c>
+      <c r="BW56" t="n">
+        <v>49.94239904988137</v>
+      </c>
+      <c r="BX56" t="n">
+        <v>61.05110803324122</v>
+      </c>
+      <c r="BY56" t="n">
         <v>7.127095182312578</v>
       </c>
-      <c r="BT56" t="n">
+      <c r="BZ56" t="n">
         <v>4</v>
+      </c>
+      <c r="CA56" t="n">
+        <v>-28.80452381601036</v>
       </c>
     </row>
     <row r="57">
@@ -12909,31 +14099,52 @@
         <v>24.4562945368172</v>
       </c>
       <c r="BL57" t="n">
+        <v>18.99631578947371</v>
+      </c>
+      <c r="BM57" t="n">
         <v>9.383333333333333</v>
       </c>
-      <c r="BM57" t="n">
+      <c r="BN57" t="n">
         <v>5.710000000000001</v>
       </c>
-      <c r="BN57" t="n">
+      <c r="BO57" t="n">
         <v>6.099999999999998</v>
       </c>
-      <c r="BO57" t="n">
+      <c r="BP57" t="n">
         <v>-5.5</v>
       </c>
-      <c r="BP57" t="n">
+      <c r="BQ57" t="n">
         <v>0.5</v>
       </c>
-      <c r="BQ57" t="n">
+      <c r="BR57" t="n">
         <v>15.47995447647953</v>
       </c>
-      <c r="BR57" t="n">
+      <c r="BS57" t="n">
         <v>10.53333333333333</v>
       </c>
-      <c r="BS57" t="n">
+      <c r="BT57" t="n">
+        <v>60.96597875569056</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>89</v>
+      </c>
+      <c r="BV57" t="n">
+        <v>56.06802816901396</v>
+      </c>
+      <c r="BW57" t="n">
+        <v>37.2576484560571</v>
+      </c>
+      <c r="BX57" t="n">
+        <v>77.9829916897507</v>
+      </c>
+      <c r="BY57" t="n">
         <v>6.451121067694753</v>
       </c>
-      <c r="BT57" t="n">
+      <c r="BZ57" t="n">
         <v>4</v>
+      </c>
+      <c r="CA57" t="n">
+        <v>-4.897950586676608</v>
       </c>
     </row>
     <row r="58">
@@ -13127,31 +14338,52 @@
         <v>25.59942992874116</v>
       </c>
       <c r="BL58" t="n">
+        <v>19.48880886426593</v>
+      </c>
+      <c r="BM58" t="n">
         <v>5.316666666666666</v>
       </c>
-      <c r="BM58" t="n">
+      <c r="BN58" t="n">
         <v>0.7999999999999989</v>
       </c>
-      <c r="BN58" t="n">
+      <c r="BO58" t="n">
         <v>5.5</v>
       </c>
-      <c r="BO58" t="n">
+      <c r="BP58" t="n">
         <v>-2.609999999999999</v>
       </c>
-      <c r="BP58" t="n">
+      <c r="BQ58" t="n">
         <v>2.600000000000001</v>
       </c>
-      <c r="BQ58" t="n">
+      <c r="BR58" t="n">
         <v>15.0179969650986</v>
       </c>
-      <c r="BR58" t="n">
+      <c r="BS58" t="n">
         <v>1.05</v>
       </c>
-      <c r="BS58" t="n">
+      <c r="BT58" t="n">
+        <v>85.85399089529619</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>18</v>
+      </c>
+      <c r="BV58" t="n">
+        <v>41.99540332906553</v>
+      </c>
+      <c r="BW58" t="n">
+        <v>33.07634204275546</v>
+      </c>
+      <c r="BX58" t="n">
+        <v>52.36941828254873</v>
+      </c>
+      <c r="BY58" t="n">
         <v>7.75400047408205</v>
       </c>
-      <c r="BT58" t="n">
+      <c r="BZ58" t="n">
         <v>4</v>
+      </c>
+      <c r="CA58" t="n">
+        <v>-43.85858756623066</v>
       </c>
     </row>
     <row r="59">
@@ -13345,31 +14577,52 @@
         <v>27.24315914489319</v>
       </c>
       <c r="BL59" t="n">
+        <v>21.93177285318561</v>
+      </c>
+      <c r="BM59" t="n">
         <v>5.1</v>
       </c>
-      <c r="BM59" t="n">
+      <c r="BN59" t="n">
         <v>1.9</v>
       </c>
-      <c r="BN59" t="n">
+      <c r="BO59" t="n">
         <v>4.100000000000001</v>
       </c>
-      <c r="BO59" t="n">
+      <c r="BP59" t="n">
         <v>-2.109999999999999</v>
       </c>
-      <c r="BP59" t="n">
+      <c r="BQ59" t="n">
         <v>3.699999999999999</v>
       </c>
-      <c r="BQ59" t="n">
+      <c r="BR59" t="n">
         <v>18.83951367781164</v>
       </c>
-      <c r="BR59" t="n">
+      <c r="BS59" t="n">
         <v>1</v>
       </c>
-      <c r="BS59" t="n">
+      <c r="BT59" t="n">
+        <v>92.23738601823744</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>16</v>
+      </c>
+      <c r="BV59" t="n">
+        <v>66.97618437900148</v>
+      </c>
+      <c r="BW59" t="n">
+        <v>62.7614726840855</v>
+      </c>
+      <c r="BX59" t="n">
+        <v>71.85324099723017</v>
+      </c>
+      <c r="BY59" t="n">
         <v>5.945825630767199</v>
       </c>
-      <c r="BT59" t="n">
+      <c r="BZ59" t="n">
         <v>4</v>
+      </c>
+      <c r="CA59" t="n">
+        <v>-25.26120163923596</v>
       </c>
     </row>
     <row r="60">
@@ -13563,31 +14816,52 @@
         <v>26.87250596658722</v>
       </c>
       <c r="BL60" t="n">
+        <v>22.77756232686982</v>
+      </c>
+      <c r="BM60" t="n">
         <v>6.983333333333333</v>
       </c>
-      <c r="BM60" t="n">
+      <c r="BN60" t="n">
         <v>1.81</v>
       </c>
-      <c r="BN60" t="n">
+      <c r="BO60" t="n">
         <v>2.189999999999998</v>
       </c>
-      <c r="BO60" t="n">
+      <c r="BP60" t="n">
         <v>-0.3100000000000005</v>
       </c>
-      <c r="BP60" t="n">
+      <c r="BQ60" t="n">
         <v>3.890000000000001</v>
       </c>
-      <c r="BQ60" t="n">
+      <c r="BR60" t="n">
         <v>20.27308980213105</v>
       </c>
-      <c r="BR60" t="n">
+      <c r="BS60" t="n">
         <v>0.5333333333333333</v>
       </c>
-      <c r="BS60" t="n">
+      <c r="BT60" t="n">
+        <v>95.75030441400341</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>21</v>
+      </c>
+      <c r="BV60" t="n">
+        <v>74.13993581514771</v>
+      </c>
+      <c r="BW60" t="n">
+        <v>66.05324582338902</v>
+      </c>
+      <c r="BX60" t="n">
+        <v>83.49002770083098</v>
+      </c>
+      <c r="BY60" t="n">
         <v>4.70069710415919</v>
       </c>
-      <c r="BT60" t="n">
+      <c r="BZ60" t="n">
         <v>4</v>
+      </c>
+      <c r="CA60" t="n">
+        <v>-21.6103685988557</v>
       </c>
     </row>
     <row r="61">
@@ -13781,31 +15055,52 @@
         <v>21.28425178147275</v>
       </c>
       <c r="BL61" t="n">
+        <v>22.58678670360112</v>
+      </c>
+      <c r="BM61" t="n">
         <v>5.283333333333333</v>
       </c>
-      <c r="BM61" t="n">
+      <c r="BN61" t="n">
         <v>0.8000000000000007</v>
       </c>
-      <c r="BN61" t="n">
+      <c r="BO61" t="n">
         <v>1.699999999999999</v>
       </c>
-      <c r="BO61" t="n">
+      <c r="BP61" t="n">
         <v>-1.5</v>
       </c>
-      <c r="BP61" t="n">
+      <c r="BQ61" t="n">
         <v>3.199999999999999</v>
       </c>
-      <c r="BQ61" t="n">
+      <c r="BR61" t="n">
         <v>14.77113808801217</v>
       </c>
-      <c r="BR61" t="n">
-        <v>0</v>
-      </c>
       <c r="BS61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT61" t="n">
+        <v>88.93851289833093</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>64</v>
+      </c>
+      <c r="BV61" t="n">
+        <v>86.84248399487863</v>
+      </c>
+      <c r="BW61" t="n">
+        <v>83.07280285035631</v>
+      </c>
+      <c r="BX61" t="n">
+        <v>91.18373961218829</v>
+      </c>
+      <c r="BY61" t="n">
         <v>7.106211463844522</v>
       </c>
-      <c r="BT61" t="n">
+      <c r="BZ61" t="n">
         <v>4</v>
+      </c>
+      <c r="CA61" t="n">
+        <v>-2.096028903452293</v>
       </c>
     </row>
     <row r="62">
@@ -13999,31 +15294,52 @@
         <v>19.88182897862236</v>
       </c>
       <c r="BL62" t="n">
+        <v>18.65811634349031</v>
+      </c>
+      <c r="BM62" t="n">
         <v>4.8</v>
       </c>
-      <c r="BM62" t="n">
+      <c r="BN62" t="n">
         <v>1</v>
       </c>
-      <c r="BN62" t="n">
+      <c r="BO62" t="n">
         <v>5.199999999999999</v>
       </c>
-      <c r="BO62" t="n">
+      <c r="BP62" t="n">
         <v>-4.31</v>
       </c>
-      <c r="BP62" t="n">
+      <c r="BQ62" t="n">
         <v>-3.899999999999999</v>
       </c>
-      <c r="BQ62" t="n">
+      <c r="BR62" t="n">
         <v>13.96793626707135</v>
       </c>
-      <c r="BR62" t="n">
+      <c r="BS62" t="n">
         <v>3.116666666666667</v>
       </c>
-      <c r="BS62" t="n">
+      <c r="BT62" t="n">
+        <v>80.22924127465886</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>25</v>
+      </c>
+      <c r="BV62" t="n">
+        <v>54.97309859154938</v>
+      </c>
+      <c r="BW62" t="n">
+        <v>50.69691211401445</v>
+      </c>
+      <c r="BX62" t="n">
+        <v>59.95232686980637</v>
+      </c>
+      <c r="BY62" t="n">
         <v>5.349528521661169</v>
       </c>
-      <c r="BT62" t="n">
+      <c r="BZ62" t="n">
         <v>4</v>
+      </c>
+      <c r="CA62" t="n">
+        <v>-25.25614268310948</v>
       </c>
     </row>
     <row r="63">
@@ -14217,31 +15533,52 @@
         <v>23.02909738717346</v>
       </c>
       <c r="BL63" t="n">
+        <v>20.13908587257619</v>
+      </c>
+      <c r="BM63" t="n">
         <v>9.566666666666666</v>
       </c>
-      <c r="BM63" t="n">
+      <c r="BN63" t="n">
         <v>4.200000000000001</v>
       </c>
-      <c r="BN63" t="n">
+      <c r="BO63" t="n">
         <v>5.899999999999999</v>
       </c>
-      <c r="BO63" t="n">
+      <c r="BP63" t="n">
         <v>-4.9</v>
       </c>
-      <c r="BP63" t="n">
+      <c r="BQ63" t="n">
         <v>-0.6099999999999994</v>
       </c>
-      <c r="BQ63" t="n">
+      <c r="BR63" t="n">
         <v>14.50423368740519</v>
       </c>
-      <c r="BR63" t="n">
+      <c r="BS63" t="n">
         <v>5.866666666666666</v>
       </c>
-      <c r="BS63" t="n">
+      <c r="BT63" t="n">
+        <v>73.87966616084989</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>29</v>
+      </c>
+      <c r="BV63" t="n">
+        <v>42.67284250960324</v>
+      </c>
+      <c r="BW63" t="n">
+        <v>33.27980997624716</v>
+      </c>
+      <c r="BX63" t="n">
+        <v>53.59637119113583</v>
+      </c>
+      <c r="BY63" t="n">
         <v>7.186124827319686</v>
       </c>
-      <c r="BT63" t="n">
+      <c r="BZ63" t="n">
         <v>4</v>
+      </c>
+      <c r="CA63" t="n">
+        <v>-31.20682365124666</v>
       </c>
     </row>
     <row r="64">
@@ -14435,31 +15772,52 @@
         <v>26.18320665083145</v>
       </c>
       <c r="BL64" t="n">
+        <v>20.78501385041553</v>
+      </c>
+      <c r="BM64" t="n">
         <v>10.98333333333333</v>
       </c>
-      <c r="BM64" t="n">
+      <c r="BN64" t="n">
         <v>1.199999999999999</v>
       </c>
-      <c r="BN64" t="n">
+      <c r="BO64" t="n">
         <v>3.789999999999999</v>
       </c>
-      <c r="BO64" t="n">
+      <c r="BP64" t="n">
         <v>-2.699999999999999</v>
       </c>
-      <c r="BP64" t="n">
+      <c r="BQ64" t="n">
         <v>3.100000000000001</v>
       </c>
-      <c r="BQ64" t="n">
+      <c r="BR64" t="n">
         <v>18.61624620060811</v>
       </c>
-      <c r="BR64" t="n">
+      <c r="BS64" t="n">
         <v>4.4</v>
       </c>
-      <c r="BS64" t="n">
+      <c r="BT64" t="n">
+        <v>83.22392097264456</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV64" t="n">
+        <v>47.26486555697849</v>
+      </c>
+      <c r="BW64" t="n">
+        <v>42.77672209026144</v>
+      </c>
+      <c r="BX64" t="n">
+        <v>52.47301939058193</v>
+      </c>
+      <c r="BY64" t="n">
         <v>5.070463146383041</v>
       </c>
-      <c r="BT64" t="n">
+      <c r="BZ64" t="n">
         <v>4</v>
+      </c>
+      <c r="CA64" t="n">
+        <v>-35.95905541566608</v>
       </c>
     </row>
     <row r="65">
@@ -14653,31 +16011,52 @@
         <v>19.75447619047624</v>
       </c>
       <c r="BL65" t="n">
+        <v>18.28686111111113</v>
+      </c>
+      <c r="BM65" t="n">
         <v>1.1</v>
       </c>
-      <c r="BM65" t="n">
+      <c r="BN65" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="BN65" t="n">
+      <c r="BO65" t="n">
         <v>0.7100000000000009</v>
       </c>
-      <c r="BO65" t="n">
+      <c r="BP65" t="n">
         <v>1</v>
       </c>
-      <c r="BP65" t="n">
+      <c r="BQ65" t="n">
         <v>-4.710000000000001</v>
       </c>
-      <c r="BQ65" t="n">
+      <c r="BR65" t="n">
         <v>17.71966616084976</v>
       </c>
-      <c r="BR65" t="n">
-        <v>0</v>
-      </c>
       <c r="BS65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT65" t="n">
+        <v>99.900000000001</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV65" t="n">
+        <v>99.85370988446739</v>
+      </c>
+      <c r="BW65" t="n">
+        <v>99.87278571428637</v>
+      </c>
+      <c r="BX65" t="n">
+        <v>99.83158333333387</v>
+      </c>
+      <c r="BY65" t="n">
         <v>1.357047574708748</v>
       </c>
-      <c r="BT65" t="n">
+      <c r="BZ65" t="n">
         <v>4</v>
+      </c>
+      <c r="CA65" t="n">
+        <v>-0.0462901155336084</v>
       </c>
     </row>
     <row r="66">
@@ -14871,31 +16250,52 @@
         <v>23.72938242280292</v>
       </c>
       <c r="BL66" t="n">
+        <v>18.55969187675072</v>
+      </c>
+      <c r="BM66" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="BM66" t="n">
+      <c r="BN66" t="n">
         <v>0.3000000000000007</v>
       </c>
-      <c r="BN66" t="n">
+      <c r="BO66" t="n">
         <v>5.5</v>
       </c>
-      <c r="BO66" t="n">
+      <c r="BP66" t="n">
         <v>-1.609999999999999</v>
       </c>
-      <c r="BP66" t="n">
+      <c r="BQ66" t="n">
         <v>0.1999999999999993</v>
       </c>
-      <c r="BQ66" t="n">
+      <c r="BR66" t="n">
         <v>15.64107902735571</v>
       </c>
-      <c r="BR66" t="n">
-        <v>0</v>
-      </c>
       <c r="BS66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT66" t="n">
+        <v>98.49740121580595</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV66" t="n">
+        <v>90.02418275418317</v>
+      </c>
+      <c r="BW66" t="n">
+        <v>82.16722090261281</v>
+      </c>
+      <c r="BX66" t="n">
+        <v>99.30554621848779</v>
+      </c>
+      <c r="BY66" t="n">
         <v>5.715407459130914</v>
       </c>
-      <c r="BT66" t="n">
+      <c r="BZ66" t="n">
         <v>4</v>
+      </c>
+      <c r="CA66" t="n">
+        <v>-8.473218461622778</v>
       </c>
     </row>
     <row r="67">
@@ -15089,31 +16489,52 @@
         <v>24.79245783132537</v>
       </c>
       <c r="BL67" t="n">
+        <v>19.91606648199447</v>
+      </c>
+      <c r="BM67" t="n">
         <v>5.583333333333333</v>
       </c>
-      <c r="BM67" t="n">
+      <c r="BN67" t="n">
         <v>1.600000000000001</v>
       </c>
-      <c r="BN67" t="n">
+      <c r="BO67" t="n">
         <v>5.399999999999999</v>
       </c>
-      <c r="BO67" t="n">
+      <c r="BP67" t="n">
         <v>-2.199999999999999</v>
       </c>
-      <c r="BP67" t="n">
+      <c r="BQ67" t="n">
         <v>0.7899999999999991</v>
       </c>
-      <c r="BQ67" t="n">
+      <c r="BR67" t="n">
         <v>14.04132218844986</v>
       </c>
-      <c r="BR67" t="n">
+      <c r="BS67" t="n">
         <v>3.316666666666667</v>
       </c>
-      <c r="BS67" t="n">
+      <c r="BT67" t="n">
+        <v>84.31931610942279</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV67" t="n">
+        <v>64.46187096774167</v>
+      </c>
+      <c r="BW67" t="n">
+        <v>52.92961445783156</v>
+      </c>
+      <c r="BX67" t="n">
+        <v>77.70207756232698</v>
+      </c>
+      <c r="BY67" t="n">
         <v>8.482135876066389</v>
       </c>
-      <c r="BT67" t="n">
+      <c r="BZ67" t="n">
         <v>5</v>
+      </c>
+      <c r="CA67" t="n">
+        <v>-19.85744514168111</v>
       </c>
     </row>
     <row r="68">
@@ -15307,31 +16728,52 @@
         <v>24.14220902612836</v>
       </c>
       <c r="BL68" t="n">
+        <v>19.51227146814405</v>
+      </c>
+      <c r="BM68" t="n">
         <v>1.566666666666667</v>
       </c>
-      <c r="BM68" t="n">
+      <c r="BN68" t="n">
         <v>4.200000000000001</v>
       </c>
-      <c r="BN68" t="n">
+      <c r="BO68" t="n">
         <v>5.289999999999999</v>
       </c>
-      <c r="BO68" t="n">
+      <c r="BP68" t="n">
         <v>-5.31</v>
       </c>
-      <c r="BP68" t="n">
+      <c r="BQ68" t="n">
         <v>-0.3999999999999986</v>
       </c>
-      <c r="BQ68" t="n">
+      <c r="BR68" t="n">
         <v>13.90861911987864</v>
       </c>
-      <c r="BR68" t="n">
+      <c r="BS68" t="n">
         <v>0.8833333333333333</v>
       </c>
-      <c r="BS68" t="n">
+      <c r="BT68" t="n">
+        <v>90.9922610015178</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>11</v>
+      </c>
+      <c r="BV68" t="n">
+        <v>55.66531370038422</v>
+      </c>
+      <c r="BW68" t="n">
+        <v>48.87824228028521</v>
+      </c>
+      <c r="BX68" t="n">
+        <v>63.55227146814434</v>
+      </c>
+      <c r="BY68" t="n">
         <v>8.093314298815512</v>
       </c>
-      <c r="BT68" t="n">
+      <c r="BZ68" t="n">
         <v>6</v>
+      </c>
+      <c r="CA68" t="n">
+        <v>-35.32694730113358</v>
       </c>
     </row>
     <row r="69">
@@ -15525,31 +16967,52 @@
         <v>24.02121140142528</v>
       </c>
       <c r="BL69" t="n">
+        <v>18.5835457063712</v>
+      </c>
+      <c r="BM69" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="BM69" t="n">
+      <c r="BN69" t="n">
         <v>3.299999999999999</v>
       </c>
-      <c r="BN69" t="n">
+      <c r="BO69" t="n">
         <v>6</v>
       </c>
-      <c r="BO69" t="n">
+      <c r="BP69" t="n">
         <v>-4.199999999999999</v>
       </c>
-      <c r="BP69" t="n">
+      <c r="BQ69" t="n">
         <v>-0.1099999999999994</v>
       </c>
-      <c r="BQ69" t="n">
+      <c r="BR69" t="n">
         <v>14.93772382397565</v>
       </c>
-      <c r="BR69" t="n">
+      <c r="BS69" t="n">
         <v>0.8166666666666667</v>
       </c>
-      <c r="BS69" t="n">
+      <c r="BT69" t="n">
+        <v>93.77770864946898</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>7</v>
+      </c>
+      <c r="BV69" t="n">
+        <v>68.31011523687549</v>
+      </c>
+      <c r="BW69" t="n">
+        <v>56.22650831353938</v>
+      </c>
+      <c r="BX69" t="n">
+        <v>82.3693628808864</v>
+      </c>
+      <c r="BY69" t="n">
         <v>6.569817789340782</v>
       </c>
-      <c r="BT69" t="n">
+      <c r="BZ69" t="n">
         <v>6</v>
+      </c>
+      <c r="CA69" t="n">
+        <v>-25.46759341259349</v>
       </c>
     </row>
     <row r="70">
@@ -15743,31 +17206,52 @@
         <v>24.67541766109792</v>
       </c>
       <c r="BL70" t="n">
+        <v>18.75645429362882</v>
+      </c>
+      <c r="BM70" t="n">
         <v>3.916666666666667</v>
       </c>
-      <c r="BM70" t="n">
+      <c r="BN70" t="n">
         <v>0.7999999999999989</v>
       </c>
-      <c r="BN70" t="n">
+      <c r="BO70" t="n">
         <v>3</v>
       </c>
-      <c r="BO70" t="n">
+      <c r="BP70" t="n">
         <v>-1.9</v>
       </c>
-      <c r="BP70" t="n">
+      <c r="BQ70" t="n">
         <v>1.789999999999999</v>
       </c>
-      <c r="BQ70" t="n">
+      <c r="BR70" t="n">
         <v>16.73487101669205</v>
       </c>
-      <c r="BR70" t="n">
+      <c r="BS70" t="n">
         <v>3.683333333333333</v>
       </c>
-      <c r="BS70" t="n">
+      <c r="BT70" t="n">
+        <v>74.29488619119887</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV70" t="n">
+        <v>54.64503209242599</v>
+      </c>
+      <c r="BW70" t="n">
+        <v>33.95811455847267</v>
+      </c>
+      <c r="BX70" t="n">
+        <v>78.62083102493077</v>
+      </c>
+      <c r="BY70" t="n">
         <v>5.194628341459548</v>
       </c>
-      <c r="BT70" t="n">
+      <c r="BZ70" t="n">
         <v>6</v>
+      </c>
+      <c r="CA70" t="n">
+        <v>-19.64985409877288</v>
       </c>
     </row>
     <row r="71">
@@ -15961,31 +17445,52 @@
         <v>20.19057007125899</v>
       </c>
       <c r="BL71" t="n">
+        <v>17.12941828254848</v>
+      </c>
+      <c r="BM71" t="n">
         <v>1.75</v>
       </c>
-      <c r="BM71" t="n">
+      <c r="BN71" t="n">
         <v>0.6999999999999993</v>
       </c>
-      <c r="BN71" t="n">
+      <c r="BO71" t="n">
         <v>0.7100000000000009</v>
       </c>
-      <c r="BO71" t="n">
+      <c r="BP71" t="n">
         <v>-0.5</v>
       </c>
-      <c r="BP71" t="n">
+      <c r="BQ71" t="n">
         <v>-1.609999999999999</v>
       </c>
-      <c r="BQ71" t="n">
+      <c r="BR71" t="n">
         <v>17.30430091185421</v>
       </c>
-      <c r="BR71" t="n">
-        <v>0</v>
-      </c>
       <c r="BS71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT71" t="n">
+        <v>99.90000000000101</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV71" t="n">
+        <v>99.06761843790007</v>
+      </c>
+      <c r="BW71" t="n">
+        <v>99.64491686460887</v>
+      </c>
+      <c r="BX71" t="n">
+        <v>98.39667590027769</v>
+      </c>
+      <c r="BY71" t="n">
         <v>1.471064004919235</v>
       </c>
-      <c r="BT71" t="n">
+      <c r="BZ71" t="n">
         <v>6</v>
+      </c>
+      <c r="CA71" t="n">
+        <v>-0.8323815621009487</v>
       </c>
     </row>
     <row r="72">
@@ -16179,31 +17684,52 @@
         <v>23.34289786223287</v>
       </c>
       <c r="BL72" t="n">
+        <v>19.52105263157895</v>
+      </c>
+      <c r="BM72" t="n">
         <v>7.266666666666667</v>
       </c>
-      <c r="BM72" t="n">
+      <c r="BN72" t="n">
         <v>0.7900000000000009</v>
       </c>
-      <c r="BN72" t="n">
+      <c r="BO72" t="n">
         <v>5.6</v>
       </c>
-      <c r="BO72" t="n">
+      <c r="BP72" t="n">
         <v>-1.81</v>
       </c>
-      <c r="BP72" t="n">
+      <c r="BQ72" t="n">
         <v>0.1000000000000014</v>
       </c>
-      <c r="BQ72" t="n">
+      <c r="BR72" t="n">
         <v>14.75894817073171</v>
       </c>
-      <c r="BR72" t="n">
-        <v>0</v>
-      </c>
       <c r="BS72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT72" t="n">
+        <v>98.56516768292751</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV72" t="n">
+        <v>84.74312419974424</v>
+      </c>
+      <c r="BW72" t="n">
+        <v>76.80795724465551</v>
+      </c>
+      <c r="BX72" t="n">
+        <v>93.9609972299169</v>
+      </c>
+      <c r="BY72" t="n">
         <v>6.814368090472023</v>
       </c>
-      <c r="BT72" t="n">
+      <c r="BZ72" t="n">
         <v>6</v>
+      </c>
+      <c r="CA72" t="n">
+        <v>-13.82204348318326</v>
       </c>
     </row>
     <row r="73">
@@ -16397,31 +17923,52 @@
         <v>27.90919239905</v>
       </c>
       <c r="BL73" t="n">
+        <v>18.2757617728532</v>
+      </c>
+      <c r="BM73" t="n">
         <v>3.1</v>
       </c>
-      <c r="BM73" t="n">
+      <c r="BN73" t="n">
         <v>1</v>
       </c>
-      <c r="BN73" t="n">
+      <c r="BO73" t="n">
         <v>5.099999999999998</v>
       </c>
-      <c r="BO73" t="n">
+      <c r="BP73" t="n">
         <v>-2.109999999999999</v>
       </c>
-      <c r="BP73" t="n">
+      <c r="BQ73" t="n">
         <v>4</v>
       </c>
-      <c r="BQ73" t="n">
+      <c r="BR73" t="n">
         <v>17.3675379939209</v>
       </c>
-      <c r="BR73" t="n">
+      <c r="BS73" t="n">
         <v>0.7666666666666667</v>
       </c>
-      <c r="BS73" t="n">
+      <c r="BT73" t="n">
+        <v>97.14427051671819</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV73" t="n">
+        <v>74.40011523687542</v>
+      </c>
+      <c r="BW73" t="n">
+        <v>60.29657957244682</v>
+      </c>
+      <c r="BX73" t="n">
+        <v>90.82055401662041</v>
+      </c>
+      <c r="BY73" t="n">
         <v>6.090618216066442</v>
       </c>
-      <c r="BT73" t="n">
+      <c r="BZ73" t="n">
         <v>6</v>
+      </c>
+      <c r="CA73" t="n">
+        <v>-22.74415527984277</v>
       </c>
     </row>
     <row r="74">
@@ -16615,31 +18162,52 @@
         <v>29.00280952380963</v>
       </c>
       <c r="BL74" t="n">
+        <v>23.10393351800557</v>
+      </c>
+      <c r="BM74" t="n">
         <v>4.183333333333334</v>
       </c>
-      <c r="BM74" t="n">
+      <c r="BN74" t="n">
         <v>2.1</v>
       </c>
-      <c r="BN74" t="n">
+      <c r="BO74" t="n">
         <v>2.399999999999999</v>
       </c>
-      <c r="BO74" t="n">
+      <c r="BP74" t="n">
         <v>-1.31</v>
       </c>
-      <c r="BP74" t="n">
+      <c r="BQ74" t="n">
         <v>5.890000000000001</v>
       </c>
-      <c r="BQ74" t="n">
+      <c r="BR74" t="n">
         <v>23.35389057750776</v>
       </c>
-      <c r="BR74" t="n">
-        <v>0</v>
-      </c>
       <c r="BS74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT74" t="n">
+        <v>99.14920972644484</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV74" t="n">
+        <v>74.95530769230774</v>
+      </c>
+      <c r="BW74" t="n">
+        <v>69.2928809523809</v>
+      </c>
+      <c r="BX74" t="n">
+        <v>81.47429362880892</v>
+      </c>
+      <c r="BY74" t="n">
         <v>2.916506858389788</v>
       </c>
-      <c r="BT74" t="n">
+      <c r="BZ74" t="n">
         <v>6</v>
+      </c>
+      <c r="CA74" t="n">
+        <v>-24.1939020341371</v>
       </c>
     </row>
     <row r="75">
@@ -16833,31 +18401,52 @@
         <v>26.82558194774358</v>
       </c>
       <c r="BL75" t="n">
-        <v>0</v>
+        <v>25.78628808864271</v>
       </c>
       <c r="BM75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN75" t="n">
         <v>1.41</v>
       </c>
-      <c r="BN75" t="n">
+      <c r="BO75" t="n">
         <v>1.100000000000001</v>
       </c>
-      <c r="BO75" t="n">
+      <c r="BP75" t="n">
         <v>6.699999999999999</v>
       </c>
-      <c r="BP75" t="n">
+      <c r="BQ75" t="n">
         <v>3.100000000000001</v>
       </c>
-      <c r="BQ75" t="n">
+      <c r="BR75" t="n">
         <v>24.33557926829291</v>
       </c>
-      <c r="BR75" t="n">
-        <v>0</v>
-      </c>
       <c r="BS75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT75" t="n">
+        <v>99.90000000000103</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV75" t="n">
+        <v>97.57284250960278</v>
+      </c>
+      <c r="BW75" t="n">
+        <v>97.27218527315934</v>
+      </c>
+      <c r="BX75" t="n">
+        <v>97.90689750692516</v>
+      </c>
+      <c r="BY75" t="n">
         <v>2.006699861028562</v>
       </c>
-      <c r="BT75" t="n">
+      <c r="BZ75" t="n">
         <v>6</v>
+      </c>
+      <c r="CA75" t="n">
+        <v>-2.32715749039825</v>
       </c>
     </row>
     <row r="76">
@@ -17051,31 +18640,52 @@
         <v>27.90377672209043</v>
       </c>
       <c r="BL76" t="n">
+        <v>26.49961218836566</v>
+      </c>
+      <c r="BM76" t="n">
         <v>1.966666666666667</v>
       </c>
-      <c r="BM76" t="n">
+      <c r="BN76" t="n">
         <v>0.5</v>
       </c>
-      <c r="BN76" t="n">
+      <c r="BO76" t="n">
         <v>1</v>
-      </c>
-      <c r="BO76" t="n">
-        <v>6.5</v>
       </c>
       <c r="BP76" t="n">
         <v>6.5</v>
       </c>
       <c r="BQ76" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BR76" t="n">
         <v>22.68773899848278</v>
       </c>
-      <c r="BR76" t="n">
-        <v>0</v>
-      </c>
       <c r="BS76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT76" t="n">
+        <v>99.900000000001</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV76" t="n">
+        <v>94.84404609475006</v>
+      </c>
+      <c r="BW76" t="n">
+        <v>93.06574821852782</v>
+      </c>
+      <c r="BX76" t="n">
+        <v>96.86986149584483</v>
+      </c>
+      <c r="BY76" t="n">
         <v>4.561889682695288</v>
       </c>
-      <c r="BT76" t="n">
+      <c r="BZ76" t="n">
         <v>6</v>
+      </c>
+      <c r="CA76" t="n">
+        <v>-5.055953905250945</v>
       </c>
     </row>
     <row r="77">
@@ -17269,31 +18879,52 @@
         <v>22.35857142857147</v>
       </c>
       <c r="BL77" t="n">
-        <v>0</v>
+        <v>21.75230555555559</v>
       </c>
       <c r="BM77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN77" t="n">
         <v>0.2899999999999991</v>
       </c>
-      <c r="BN77" t="n">
+      <c r="BO77" t="n">
         <v>2.300000000000001</v>
       </c>
-      <c r="BO77" t="n">
+      <c r="BP77" t="n">
         <v>2</v>
       </c>
-      <c r="BP77" t="n">
+      <c r="BQ77" t="n">
         <v>-0.1099999999999994</v>
       </c>
-      <c r="BQ77" t="n">
+      <c r="BR77" t="n">
         <v>17.11983257229833</v>
       </c>
-      <c r="BR77" t="n">
-        <v>0</v>
-      </c>
       <c r="BS77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT77" t="n">
+        <v>99.47547945205555</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV77" t="n">
+        <v>99.37169448010339</v>
+      </c>
+      <c r="BW77" t="n">
+        <v>98.99483333333362</v>
+      </c>
+      <c r="BX77" t="n">
+        <v>99.81086111111165</v>
+      </c>
+      <c r="BY77" t="n">
         <v>4.956842652348847</v>
       </c>
-      <c r="BT77" t="n">
+      <c r="BZ77" t="n">
         <v>6</v>
+      </c>
+      <c r="CA77" t="n">
+        <v>-0.103784971952166</v>
       </c>
     </row>
     <row r="78">
@@ -17487,31 +19118,52 @@
         <v>25.67277909738726</v>
       </c>
       <c r="BL78" t="n">
+        <v>18.58833795013851</v>
+      </c>
+      <c r="BM78" t="n">
         <v>4.95</v>
       </c>
-      <c r="BM78" t="n">
+      <c r="BN78" t="n">
         <v>2.910000000000002</v>
       </c>
-      <c r="BN78" t="n">
+      <c r="BO78" t="n">
         <v>4.190000000000001</v>
       </c>
-      <c r="BO78" t="n">
+      <c r="BP78" t="n">
         <v>-1.81</v>
       </c>
-      <c r="BP78" t="n">
+      <c r="BQ78" t="n">
         <v>2</v>
       </c>
-      <c r="BQ78" t="n">
+      <c r="BR78" t="n">
         <v>15.28905775075987</v>
       </c>
-      <c r="BR78" t="n">
+      <c r="BS78" t="n">
         <v>9.733333333333333</v>
       </c>
-      <c r="BS78" t="n">
+      <c r="BT78" t="n">
+        <v>69.23981762917958</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>21</v>
+      </c>
+      <c r="BV78" t="n">
+        <v>72.91705505761792</v>
+      </c>
+      <c r="BW78" t="n">
+        <v>57.17840855106918</v>
+      </c>
+      <c r="BX78" t="n">
+        <v>91.25429362880872</v>
+      </c>
+      <c r="BY78" t="n">
         <v>7.109700251801076</v>
       </c>
-      <c r="BT78" t="n">
+      <c r="BZ78" t="n">
         <v>6</v>
+      </c>
+      <c r="CA78" t="n">
+        <v>3.677237428438332</v>
       </c>
     </row>
     <row r="79">
@@ -17705,31 +19357,52 @@
         <v>23.73749403341292</v>
       </c>
       <c r="BL79" t="n">
+        <v>22.32313888888891</v>
+      </c>
+      <c r="BM79" t="n">
         <v>7.666666666666667</v>
       </c>
-      <c r="BM79" t="n">
+      <c r="BN79" t="n">
         <v>3.700000000000001</v>
       </c>
-      <c r="BN79" t="n">
+      <c r="BO79" t="n">
         <v>5.100000000000001</v>
       </c>
-      <c r="BO79" t="n">
+      <c r="BP79" t="n">
         <v>-3.81</v>
       </c>
-      <c r="BP79" t="n">
+      <c r="BQ79" t="n">
         <v>2.789999999999999</v>
       </c>
-      <c r="BQ79" t="n">
+      <c r="BR79" t="n">
         <v>14.53301972685887</v>
       </c>
-      <c r="BR79" t="n">
+      <c r="BS79" t="n">
         <v>1.166666666666667</v>
       </c>
-      <c r="BS79" t="n">
+      <c r="BT79" t="n">
+        <v>87.62936267071321</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>76</v>
+      </c>
+      <c r="BV79" t="n">
+        <v>48.47791773778945</v>
+      </c>
+      <c r="BW79" t="n">
+        <v>47.56317422434387</v>
+      </c>
+      <c r="BX79" t="n">
+        <v>49.50872222222243</v>
+      </c>
+      <c r="BY79" t="n">
         <v>8.543895440236385</v>
       </c>
-      <c r="BT79" t="n">
+      <c r="BZ79" t="n">
         <v>7</v>
+      </c>
+      <c r="CA79" t="n">
+        <v>-39.15144493292375</v>
       </c>
     </row>
     <row r="80">
@@ -17923,31 +19596,52 @@
         <v>25.76904988123522</v>
       </c>
       <c r="BL80" t="n">
+        <v>22.14504155124656</v>
+      </c>
+      <c r="BM80" t="n">
         <v>3.883333333333333</v>
       </c>
-      <c r="BM80" t="n">
+      <c r="BN80" t="n">
         <v>6.410000000000002</v>
       </c>
-      <c r="BN80" t="n">
+      <c r="BO80" t="n">
         <v>3.399999999999999</v>
       </c>
-      <c r="BO80" t="n">
+      <c r="BP80" t="n">
         <v>-4.31</v>
       </c>
-      <c r="BP80" t="n">
+      <c r="BQ80" t="n">
         <v>2.289999999999999</v>
       </c>
-      <c r="BQ80" t="n">
+      <c r="BR80" t="n">
         <v>16.60655538694993</v>
       </c>
-      <c r="BR80" t="n">
+      <c r="BS80" t="n">
         <v>1.3</v>
       </c>
-      <c r="BS80" t="n">
+      <c r="BT80" t="n">
+        <v>95.42496206373357</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>68</v>
+      </c>
+      <c r="BV80" t="n">
+        <v>63.55149807938551</v>
+      </c>
+      <c r="BW80" t="n">
+        <v>57.64698337292172</v>
+      </c>
+      <c r="BX80" t="n">
+        <v>70.40592797783957</v>
+      </c>
+      <c r="BY80" t="n">
         <v>7.486184689874737</v>
       </c>
-      <c r="BT80" t="n">
+      <c r="BZ80" t="n">
         <v>7</v>
+      </c>
+      <c r="CA80" t="n">
+        <v>-31.87346398434806</v>
       </c>
     </row>
     <row r="81">
@@ -18141,31 +19835,52 @@
         <v>24.35862232779108</v>
       </c>
       <c r="BL81" t="n">
+        <v>22.96058171745155</v>
+      </c>
+      <c r="BM81" t="n">
         <v>4.35</v>
       </c>
-      <c r="BM81" t="n">
+      <c r="BN81" t="n">
         <v>2.9</v>
       </c>
-      <c r="BN81" t="n">
+      <c r="BO81" t="n">
         <v>1.600000000000001</v>
       </c>
-      <c r="BO81" t="n">
+      <c r="BP81" t="n">
         <v>-1.9</v>
       </c>
-      <c r="BP81" t="n">
+      <c r="BQ81" t="n">
         <v>3.789999999999999</v>
       </c>
-      <c r="BQ81" t="n">
+      <c r="BR81" t="n">
         <v>19.27007587253434</v>
       </c>
-      <c r="BR81" t="n">
-        <v>0</v>
-      </c>
       <c r="BS81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT81" t="n">
+        <v>99.900000000001</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>38</v>
+      </c>
+      <c r="BV81" t="n">
+        <v>79.4903329065304</v>
+      </c>
+      <c r="BW81" t="n">
+        <v>77.56534441805228</v>
+      </c>
+      <c r="BX81" t="n">
+        <v>81.67598337950149</v>
+      </c>
+      <c r="BY81" t="n">
         <v>4.43946317996258</v>
       </c>
-      <c r="BT81" t="n">
+      <c r="BZ81" t="n">
         <v>7</v>
+      </c>
+      <c r="CA81" t="n">
+        <v>-20.4096670934706</v>
       </c>
     </row>
     <row r="82">
@@ -18359,31 +20074,52 @@
         <v>26.76966745843244</v>
       </c>
       <c r="BL82" t="n">
+        <v>23.3179778393352</v>
+      </c>
+      <c r="BM82" t="n">
         <v>3.233333333333333</v>
       </c>
-      <c r="BM82" t="n">
+      <c r="BN82" t="n">
         <v>1.199999999999999</v>
       </c>
-      <c r="BN82" t="n">
+      <c r="BO82" t="n">
         <v>5.189999999999998</v>
       </c>
-      <c r="BO82" t="n">
+      <c r="BP82" t="n">
         <v>-2.31</v>
       </c>
-      <c r="BP82" t="n">
+      <c r="BQ82" t="n">
         <v>3.699999999999999</v>
       </c>
-      <c r="BQ82" t="n">
+      <c r="BR82" t="n">
         <v>13.99364741641346</v>
       </c>
-      <c r="BR82" t="n">
+      <c r="BS82" t="n">
         <v>1.166666666666667</v>
       </c>
-      <c r="BS82" t="n">
+      <c r="BT82" t="n">
+        <v>89.47089665653536</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>5</v>
+      </c>
+      <c r="BV82" t="n">
+        <v>58.37574903969252</v>
+      </c>
+      <c r="BW82" t="n">
+        <v>42.36280285035644</v>
+      </c>
+      <c r="BX82" t="n">
+        <v>77.01332409972312</v>
+      </c>
+      <c r="BY82" t="n">
         <v>11.17860610471339</v>
       </c>
-      <c r="BT82" t="n">
+      <c r="BZ82" t="n">
         <v>8</v>
+      </c>
+      <c r="CA82" t="n">
+        <v>-31.09514761684284</v>
       </c>
     </row>
     <row r="83">
@@ -18577,31 +20313,52 @@
         <v>26.92076009501201</v>
       </c>
       <c r="BL83" t="n">
+        <v>20.84111111111114</v>
+      </c>
+      <c r="BM83" t="n">
         <v>2.916666666666667</v>
       </c>
-      <c r="BM83" t="n">
+      <c r="BN83" t="n">
         <v>2.5</v>
       </c>
-      <c r="BN83" t="n">
+      <c r="BO83" t="n">
         <v>5.5</v>
       </c>
-      <c r="BO83" t="n">
+      <c r="BP83" t="n">
         <v>-4.9</v>
       </c>
-      <c r="BP83" t="n">
+      <c r="BQ83" t="n">
         <v>3.5</v>
       </c>
-      <c r="BQ83" t="n">
+      <c r="BR83" t="n">
         <v>14.57723404255319</v>
       </c>
-      <c r="BR83" t="n">
+      <c r="BS83" t="n">
         <v>1.2</v>
       </c>
-      <c r="BS83" t="n">
+      <c r="BT83" t="n">
+        <v>82.16662613981777</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>39</v>
+      </c>
+      <c r="BV83" t="n">
+        <v>55.81824358974342</v>
+      </c>
+      <c r="BW83" t="n">
+        <v>39.44543942992888</v>
+      </c>
+      <c r="BX83" t="n">
+        <v>74.93052777777791</v>
+      </c>
+      <c r="BY83" t="n">
         <v>9.534612111293104</v>
       </c>
-      <c r="BT83" t="n">
+      <c r="BZ83" t="n">
         <v>9</v>
+      </c>
+      <c r="CA83" t="n">
+        <v>-26.34838255007434</v>
       </c>
     </row>
     <row r="84">
@@ -18795,31 +20552,52 @@
         <v>27.5209738717341</v>
       </c>
       <c r="BL84" t="n">
+        <v>21.39750000000002</v>
+      </c>
+      <c r="BM84" t="n">
         <v>2.816666666666667</v>
       </c>
-      <c r="BM84" t="n">
+      <c r="BN84" t="n">
         <v>4.1</v>
       </c>
-      <c r="BN84" t="n">
+      <c r="BO84" t="n">
         <v>4.5</v>
       </c>
-      <c r="BO84" t="n">
+      <c r="BP84" t="n">
         <v>-5</v>
       </c>
-      <c r="BP84" t="n">
+      <c r="BQ84" t="n">
         <v>4</v>
       </c>
-      <c r="BQ84" t="n">
+      <c r="BR84" t="n">
         <v>16.43981790591802</v>
       </c>
-      <c r="BR84" t="n">
+      <c r="BS84" t="n">
         <v>1.3</v>
       </c>
-      <c r="BS84" t="n">
+      <c r="BT84" t="n">
+        <v>89.88578148710202</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>42</v>
+      </c>
+      <c r="BV84" t="n">
+        <v>56.43997435897436</v>
+      </c>
+      <c r="BW84" t="n">
+        <v>45.88282660332558</v>
+      </c>
+      <c r="BX84" t="n">
+        <v>68.74558333333357</v>
+      </c>
+      <c r="BY84" t="n">
         <v>8.253041068441089</v>
       </c>
-      <c r="BT84" t="n">
+      <c r="BZ84" t="n">
         <v>10</v>
+      </c>
+      <c r="CA84" t="n">
+        <v>-33.44580712812766</v>
       </c>
     </row>
   </sheetData>
